--- a/src/com/data/Test Cases.xlsx
+++ b/src/com/data/Test Cases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9600" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9602" uniqueCount="427">
   <si>
     <t>TCID</t>
   </si>
@@ -1786,6 +1786,30 @@
   </si>
   <si>
     <t>BUILD005 :: No :: Approved :: Yes :: Approved</t>
+  </si>
+  <si>
+    <t>cpe</t>
+  </si>
+  <si>
+    <t>BUILD001 :: Yes :: BUILD005 Plan Examiner :: null :: null</t>
+  </si>
+  <si>
+    <t>cpe_2</t>
+  </si>
+  <si>
+    <t>BUILD001 :: null :: null :: null :: Approved</t>
+  </si>
+  <si>
+    <t>BUILD034 :: BUILD032 Prof-Cert QA Admin</t>
+  </si>
+  <si>
+    <t>qa_super</t>
+  </si>
+  <si>
+    <t>qa_admin</t>
+  </si>
+  <si>
+    <t>BUILD032 :: Permit Issued</t>
   </si>
 </sst>
 </file>
@@ -3555,8 +3579,8 @@
   <dimension ref="A1:EH247"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BU11" sqref="BU11"/>
+      <pane xSplit="2" topLeftCell="CM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CP7" sqref="CP7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
@@ -3630,7 +3654,7 @@
     <col min="71" max="71" width="29" style="12" customWidth="1"/>
     <col min="72" max="72" width="12" style="12" customWidth="1"/>
     <col min="73" max="74" width="14" style="12" customWidth="1"/>
-    <col min="75" max="75" width="12" style="12" customWidth="1"/>
+    <col min="75" max="75" width="24.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="10" style="12" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="10.85546875" style="12" customWidth="1"/>
     <col min="78" max="78" width="8.140625" style="13" bestFit="1" customWidth="1"/>
@@ -3650,7 +3674,7 @@
     <col min="92" max="92" width="15.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="93" max="93" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="11.85546875" style="12" customWidth="1"/>
+    <col min="95" max="95" width="20.28515625" style="12" customWidth="1"/>
     <col min="96" max="96" width="10.140625" style="13" customWidth="1"/>
     <col min="97" max="97" width="8.42578125" style="12" customWidth="1"/>
     <col min="98" max="98" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
@@ -4391,7 +4415,7 @@
         <v>138</v>
       </c>
       <c r="BS6" s="16" t="s">
-        <v>98</v>
+        <v>419</v>
       </c>
       <c r="BT6" s="16" t="s">
         <v>120</v>
@@ -4403,7 +4427,7 @@
         <v>412</v>
       </c>
       <c r="BW6" s="16" t="s">
-        <v>121</v>
+        <v>421</v>
       </c>
       <c r="BX6" s="6" t="s">
         <v>129</v>
@@ -4463,7 +4487,7 @@
         <v>232</v>
       </c>
       <c r="CQ6" s="16" t="s">
-        <v>113</v>
+        <v>424</v>
       </c>
       <c r="CR6" s="17" t="s">
         <v>225</v>
@@ -4478,7 +4502,7 @@
         <v>115</v>
       </c>
       <c r="CV6" s="16" t="s">
-        <v>116</v>
+        <v>425</v>
       </c>
       <c r="CW6" s="17" t="s">
         <v>228</v>
@@ -4742,16 +4766,18 @@
       </c>
       <c r="BR7" s="4"/>
       <c r="BS7" s="4" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="BT7" s="4"/>
       <c r="BU7" s="4" t="s">
-        <v>321</v>
+        <v>418</v>
       </c>
       <c r="BV7" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="BW7" s="4"/>
+      <c r="BW7" s="4" t="s">
+        <v>422</v>
+      </c>
       <c r="BX7" s="14"/>
       <c r="BY7" s="4"/>
       <c r="CA7" s="4"/>
@@ -4797,7 +4823,7 @@
         <v>109</v>
       </c>
       <c r="CQ7" s="4" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="CR7" s="4" t="s">
         <v>3</v>
@@ -4812,7 +4838,7 @@
         <v>109</v>
       </c>
       <c r="CV7" s="4" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="CW7" s="4" t="s">
         <v>3</v>
@@ -5109,7 +5135,7 @@
         <v>138</v>
       </c>
       <c r="BS10" s="16" t="s">
-        <v>98</v>
+        <v>419</v>
       </c>
       <c r="BT10" s="16" t="s">
         <v>120</v>
@@ -5121,7 +5147,7 @@
         <v>412</v>
       </c>
       <c r="BW10" s="16" t="s">
-        <v>121</v>
+        <v>421</v>
       </c>
       <c r="BX10" s="6" t="s">
         <v>129</v>
@@ -5181,7 +5207,7 @@
         <v>232</v>
       </c>
       <c r="CQ10" s="16" t="s">
-        <v>113</v>
+        <v>424</v>
       </c>
       <c r="CR10" s="17" t="s">
         <v>225</v>
@@ -5196,7 +5222,7 @@
         <v>115</v>
       </c>
       <c r="CV10" s="16" t="s">
-        <v>116</v>
+        <v>425</v>
       </c>
       <c r="CW10" s="17" t="s">
         <v>228</v>
@@ -5436,7 +5462,7 @@
       </c>
       <c r="BR11" s="4"/>
       <c r="BS11" s="4" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="BT11" s="4"/>
       <c r="BU11" s="4" t="s">
@@ -5445,7 +5471,9 @@
       <c r="BV11" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="BW11" s="4"/>
+      <c r="BW11" s="4" t="s">
+        <v>422</v>
+      </c>
       <c r="BX11" s="14"/>
       <c r="BY11" s="4"/>
       <c r="BZ11" s="5" t="s">
@@ -5494,7 +5522,7 @@
         <v>109</v>
       </c>
       <c r="CQ11" s="4" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="CR11" s="4" t="s">
         <v>3</v>
@@ -5509,7 +5537,7 @@
         <v>109</v>
       </c>
       <c r="CV11" s="4" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="CW11" s="4" t="s">
         <v>3</v>

--- a/src/com/data/Test Cases.xlsx
+++ b/src/com/data/Test Cases.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12450" windowHeight="6690" tabRatio="152" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="17775" windowHeight="8835" tabRatio="152" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Test Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9602" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9603" uniqueCount="431">
   <si>
     <t>TCID</t>
   </si>
@@ -1695,9 +1696,6 @@
     <t>Curb Cut ::  :: I ::  :: permit :: 887 ::  ::  :: rome18 ::  ::  :: exempted</t>
   </si>
   <si>
-    <t xml:space="preserve"> ::  ::  ::  ::  ::  :: permit issued :: 1000 :: antenna ::  :: joe2 ::  :: :: </t>
-  </si>
-  <si>
     <t xml:space="preserve"> ::  :: I ::  ::  ::  :: permit issued :: 1000 :: antenna ::  ::  ::  :: :: </t>
   </si>
   <si>
@@ -1785,31 +1783,46 @@
     <t>BUILD001 :: Yes :: BUILD005 Plan Examiner :: BUILD027 Plan Examiner :: Approved</t>
   </si>
   <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>Crm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ::  ::  ::  ::  ::  :: permit issued :: 1000 :: antenn ::  :: joe ::  :: :: </t>
+  </si>
+  <si>
+    <t>cpe</t>
+  </si>
+  <si>
+    <t>cpe_2</t>
+  </si>
+  <si>
+    <t>qa_super</t>
+  </si>
+  <si>
+    <t>qa_admin</t>
+  </si>
+  <si>
+    <t>BUILD001 :: Yes :: BUILD005 Plan Examiner :: null :: null</t>
+  </si>
+  <si>
     <t>BUILD005 :: No :: Approved :: Yes :: Approved</t>
   </si>
   <si>
-    <t>cpe</t>
-  </si>
-  <si>
-    <t>BUILD001 :: Yes :: BUILD005 Plan Examiner :: null :: null</t>
-  </si>
-  <si>
-    <t>cpe_2</t>
-  </si>
-  <si>
     <t>BUILD001 :: null :: null :: null :: Approved</t>
   </si>
   <si>
     <t>BUILD034 :: BUILD032 Prof-Cert QA Admin</t>
   </si>
   <si>
-    <t>qa_super</t>
-  </si>
-  <si>
-    <t>qa_admin</t>
-  </si>
-  <si>
     <t>BUILD032 :: Permit Issued</t>
+  </si>
+  <si>
+    <t>Standard Plan Examination or Review</t>
+  </si>
+  <si>
+    <t>filing_review_type_8085</t>
   </si>
 </sst>
 </file>
@@ -2553,7 +2566,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2730,6 +2743,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="46" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3163,7 +3179,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.85546875" defaultRowHeight="12.75"/>
@@ -3185,16 +3201,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" s="2" customFormat="1">
       <c r="A2" s="63" t="s">
-        <v>393</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="B2" s="61"/>
       <c r="C2" s="58" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="63" t="s">
         <v>392</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -3202,33 +3219,33 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="43" t="s">
         <v>391</v>
       </c>
       <c r="C4" s="58" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="63" t="s">
+        <v>390</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1">
+      <c r="A6" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="58" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="63" t="s">
-        <v>290</v>
-      </c>
+      <c r="B6" s="61"/>
       <c r="C6" s="58" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="63" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C7" s="58" t="s">
         <v>3</v>
@@ -3236,23 +3253,22 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="63" t="s">
-        <v>406</v>
+        <v>293</v>
       </c>
       <c r="C8" s="58" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="2" customFormat="1">
+    <row r="9" spans="1:3">
       <c r="A9" s="63" t="s">
-        <v>397</v>
-      </c>
-      <c r="B9" s="56"/>
+        <v>405</v>
+      </c>
       <c r="C9" s="58" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="63" t="s">
         <v>396</v>
       </c>
       <c r="B10" s="56"/>
@@ -3262,16 +3278,16 @@
     </row>
     <row r="11" spans="1:3" s="2" customFormat="1">
       <c r="A11" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="B11" s="61"/>
+        <v>395</v>
+      </c>
+      <c r="B11" s="56"/>
       <c r="C11" s="58" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="2" customFormat="1">
       <c r="A12" s="43" t="s">
-        <v>295</v>
+        <v>222</v>
       </c>
       <c r="B12" s="61"/>
       <c r="C12" s="58" t="s">
@@ -3279,8 +3295,8 @@
       </c>
     </row>
     <row r="13" spans="1:3" s="2" customFormat="1">
-      <c r="A13" s="63" t="s">
-        <v>292</v>
+      <c r="A13" s="43" t="s">
+        <v>295</v>
       </c>
       <c r="B13" s="61"/>
       <c r="C13" s="58" t="s">
@@ -3306,7 +3322,7 @@
     </row>
     <row r="16" spans="1:3" s="2" customFormat="1">
       <c r="A16" s="43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B16" s="61"/>
       <c r="C16" s="58" t="s">
@@ -3323,7 +3339,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="55" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C18" s="59" t="s">
         <v>3</v>
@@ -3337,7 +3353,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C20" s="58" t="s">
         <v>3</v>
@@ -3345,7 +3361,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C21" s="58" t="s">
         <v>3</v>
@@ -3378,7 +3394,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C25" s="58" t="s">
         <v>3</v>
@@ -3386,7 +3402,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C26" s="58" t="s">
         <v>3</v>
@@ -3394,7 +3410,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C27" s="58" t="s">
         <v>3</v>
@@ -3546,6 +3562,9 @@
       </c>
     </row>
     <row r="47" spans="1:3">
+      <c r="A47" s="63" t="s">
+        <v>418</v>
+      </c>
       <c r="C47" s="58" t="s">
         <v>3</v>
       </c>
@@ -3579,8 +3598,8 @@
   <dimension ref="A1:EH247"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="CM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CP7" sqref="CP7"/>
+      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
@@ -3715,7 +3734,7 @@
     <col min="138" max="16384" width="27.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:128" s="32" customFormat="1">
+    <row r="1" spans="1:129" s="32" customFormat="1">
       <c r="A1" s="29"/>
       <c r="B1" s="30"/>
       <c r="C1" s="29"/>
@@ -3819,7 +3838,7 @@
       <c r="CY1" s="31"/>
       <c r="CZ1" s="31"/>
     </row>
-    <row r="2" spans="1:128" s="32" customFormat="1">
+    <row r="2" spans="1:129" s="32" customFormat="1">
       <c r="A2" s="29"/>
       <c r="B2" s="30"/>
       <c r="C2" s="29"/>
@@ -3923,7 +3942,7 @@
       <c r="CY2" s="31"/>
       <c r="CZ2" s="31"/>
     </row>
-    <row r="3" spans="1:128" s="32" customFormat="1">
+    <row r="3" spans="1:129" s="32" customFormat="1">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
       <c r="C3" s="29"/>
@@ -4027,7 +4046,7 @@
       <c r="CY3" s="31"/>
       <c r="CZ3" s="31"/>
     </row>
-    <row r="4" spans="1:128" s="32" customFormat="1">
+    <row r="4" spans="1:129" s="32" customFormat="1">
       <c r="A4" s="29"/>
       <c r="B4" s="30"/>
       <c r="C4" s="29"/>
@@ -4131,1501 +4150,1602 @@
       <c r="CY4" s="31"/>
       <c r="CZ4" s="31"/>
     </row>
-    <row r="5" spans="1:128" s="25" customFormat="1">
-      <c r="A5" s="63" t="s">
+    <row r="5" spans="1:129" s="32" customFormat="1">
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="29"/>
+      <c r="AJ5" s="29"/>
+      <c r="AK5" s="29"/>
+      <c r="AL5" s="29"/>
+      <c r="AM5" s="31"/>
+      <c r="AN5" s="31"/>
+      <c r="AO5" s="31"/>
+      <c r="AP5" s="29"/>
+      <c r="AQ5" s="29"/>
+      <c r="AR5" s="31"/>
+      <c r="AS5" s="31"/>
+      <c r="AT5" s="31"/>
+      <c r="AU5" s="31"/>
+      <c r="AV5" s="31"/>
+      <c r="AW5" s="31"/>
+      <c r="AX5" s="31"/>
+      <c r="AY5" s="31"/>
+      <c r="AZ5" s="31"/>
+      <c r="BA5" s="31"/>
+      <c r="BB5" s="31"/>
+      <c r="BC5" s="31"/>
+      <c r="BD5" s="31"/>
+      <c r="BE5" s="31"/>
+      <c r="BF5" s="31"/>
+      <c r="BG5" s="31"/>
+      <c r="BH5" s="31"/>
+      <c r="BI5" s="31"/>
+      <c r="BJ5" s="31"/>
+      <c r="BK5" s="31"/>
+      <c r="BL5" s="31"/>
+      <c r="BM5" s="31"/>
+      <c r="BN5" s="31"/>
+      <c r="BO5" s="31"/>
+      <c r="BP5" s="31"/>
+      <c r="BR5" s="29"/>
+      <c r="BS5" s="29"/>
+      <c r="BT5" s="29"/>
+      <c r="BU5" s="29"/>
+      <c r="BV5" s="29"/>
+      <c r="BW5" s="29"/>
+      <c r="BX5" s="31"/>
+      <c r="BY5" s="29"/>
+      <c r="CA5" s="29"/>
+      <c r="CB5" s="29"/>
+      <c r="CC5" s="31"/>
+      <c r="CD5" s="29"/>
+      <c r="CE5" s="29"/>
+      <c r="CF5" s="29"/>
+      <c r="CG5" s="29"/>
+      <c r="CH5" s="29"/>
+      <c r="CI5" s="29"/>
+      <c r="CJ5" s="29"/>
+      <c r="CK5" s="31"/>
+      <c r="CL5" s="31"/>
+      <c r="CM5" s="31"/>
+      <c r="CN5" s="29"/>
+      <c r="CO5" s="29"/>
+      <c r="CP5" s="29"/>
+      <c r="CQ5" s="29"/>
+      <c r="CR5" s="29"/>
+      <c r="CS5" s="29"/>
+      <c r="CT5" s="29"/>
+      <c r="CU5" s="29"/>
+      <c r="CV5" s="29"/>
+      <c r="CW5" s="29"/>
+      <c r="CX5" s="29"/>
+      <c r="CY5" s="31"/>
+      <c r="CZ5" s="31"/>
+    </row>
+    <row r="6" spans="1:129" s="25" customFormat="1">
+      <c r="A6" s="63" t="s">
+        <v>392</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="38"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="38"/>
+      <c r="AT6" s="38"/>
+      <c r="AU6" s="38"/>
+      <c r="AV6" s="38"/>
+      <c r="AW6" s="38"/>
+      <c r="AX6" s="38"/>
+      <c r="AY6" s="38"/>
+      <c r="AZ6" s="38"/>
+      <c r="BA6" s="38"/>
+      <c r="BB6" s="38"/>
+      <c r="BC6" s="38"/>
+      <c r="BD6" s="38"/>
+      <c r="BE6" s="38"/>
+      <c r="BF6" s="38"/>
+      <c r="BG6" s="38"/>
+      <c r="BH6" s="38"/>
+      <c r="BI6" s="38"/>
+      <c r="BJ6" s="38"/>
+      <c r="BK6" s="38"/>
+      <c r="BL6" s="38"/>
+      <c r="BM6" s="38"/>
+      <c r="BN6" s="38"/>
+      <c r="BO6" s="38"/>
+      <c r="BP6" s="38"/>
+      <c r="BR6" s="38"/>
+      <c r="BS6" s="38"/>
+      <c r="BT6" s="38"/>
+      <c r="BU6" s="38"/>
+      <c r="BV6" s="38"/>
+      <c r="BW6" s="38"/>
+      <c r="BX6" s="38"/>
+      <c r="BY6" s="38"/>
+      <c r="CA6" s="38"/>
+      <c r="CC6" s="38"/>
+      <c r="CD6" s="38"/>
+      <c r="CE6" s="38"/>
+      <c r="CF6" s="38"/>
+      <c r="CG6" s="38"/>
+      <c r="CQ6" s="38"/>
+      <c r="CS6" s="38"/>
+      <c r="CT6" s="38"/>
+      <c r="CU6" s="38"/>
+      <c r="CV6" s="38"/>
+      <c r="CW6" s="38"/>
+      <c r="CX6" s="38"/>
+      <c r="CY6" s="38"/>
+      <c r="CZ6" s="38"/>
+    </row>
+    <row r="7" spans="1:129" s="15" customFormat="1" ht="38.25">
+      <c r="A7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="38"/>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="38"/>
-      <c r="AW5" s="38"/>
-      <c r="AX5" s="38"/>
-      <c r="AY5" s="38"/>
-      <c r="AZ5" s="38"/>
-      <c r="BA5" s="38"/>
-      <c r="BB5" s="38"/>
-      <c r="BC5" s="38"/>
-      <c r="BD5" s="38"/>
-      <c r="BE5" s="38"/>
-      <c r="BF5" s="38"/>
-      <c r="BG5" s="38"/>
-      <c r="BH5" s="38"/>
-      <c r="BI5" s="38"/>
-      <c r="BJ5" s="38"/>
-      <c r="BK5" s="38"/>
-      <c r="BL5" s="38"/>
-      <c r="BM5" s="38"/>
-      <c r="BN5" s="38"/>
-      <c r="BO5" s="38"/>
-      <c r="BP5" s="38"/>
-      <c r="BR5" s="38"/>
-      <c r="BS5" s="38"/>
-      <c r="BT5" s="38"/>
-      <c r="BU5" s="38"/>
-      <c r="BV5" s="38"/>
-      <c r="BW5" s="38"/>
-      <c r="BX5" s="38"/>
-      <c r="BY5" s="38"/>
-      <c r="CA5" s="38"/>
-      <c r="CC5" s="38"/>
-      <c r="CD5" s="38"/>
-      <c r="CE5" s="38"/>
-      <c r="CF5" s="38"/>
-      <c r="CG5" s="38"/>
-      <c r="CQ5" s="38"/>
-      <c r="CS5" s="38"/>
-      <c r="CT5" s="38"/>
-      <c r="CU5" s="38"/>
-      <c r="CV5" s="38"/>
-      <c r="CW5" s="38"/>
-      <c r="CX5" s="38"/>
-      <c r="CY5" s="38"/>
-      <c r="CZ5" s="38"/>
+      <c r="S7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="V7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="W7" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE7" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG7" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH7" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN7" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR7" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW7" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA7" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB7" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF7" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG7" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="BH7" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI7" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="BJ7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM7" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BN7" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="BO7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="BP7" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="BQ7" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="BR7" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="BS7" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="BT7" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU7" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="BV7" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="BW7" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="BX7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="BY7" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="BZ7" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="CA7" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="CB7" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="CC7" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="CD7" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="CE7" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="CF7" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="CG7" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="CH7" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="CI7" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="CJ7" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="CK7" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="CL7" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="CM7" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="CN7" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO7" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="CP7" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="CQ7" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="CR7" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="CS7" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="CT7" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="CU7" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="CV7" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="CW7" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="CX7" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="CY7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="CZ7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="DA7" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="DB7" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="DC7" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="DD7" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="DE7" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="DF7" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="DG7" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="DH7" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="DI7" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="DJ7" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="DK7" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="DL7" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="DM7" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="DN7" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="DO7" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="DP7" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="DQ7" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR7" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="DS7" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="DT7" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="DU7" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="DV7" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="DW7" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="DX7" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="DY7" s="15" t="s">
+        <v>430</v>
+      </c>
     </row>
-    <row r="6" spans="1:128" s="15" customFormat="1" ht="38.25">
-      <c r="A6" s="17" t="s">
+    <row r="8" spans="1:129" s="5" customFormat="1" ht="51">
+      <c r="A8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="X8" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="AD8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH8" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="AI8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN8" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="AO8" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR8" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW8" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="AX8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY8" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ8" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="BA8" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="BB8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BE8" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF8" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="BG8" s="14"/>
+      <c r="BH8" s="14"/>
+      <c r="BI8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ8" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM8" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN8" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="BO8" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="BP8" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="BR8" s="4"/>
+      <c r="BS8" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="BT8" s="4"/>
+      <c r="BU8" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="BV8" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="BW8" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="BX8" s="14"/>
+      <c r="BY8" s="4"/>
+      <c r="CA8" s="4"/>
+      <c r="CB8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CC8" s="14"/>
+      <c r="CD8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="CE8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="CF8" s="4"/>
+      <c r="CG8" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="CH8" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="CI8" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="CJ8" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="CK8" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="CL8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CM8" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="CN8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="CP8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="CQ8" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="CR8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CT8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="CV8" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="CW8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX8" s="4"/>
+      <c r="CY8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ8" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="DY8" s="26" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:129" s="50" customFormat="1">
+      <c r="A9" s="52"/>
+      <c r="B9" s="64"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AL9" s="52"/>
+      <c r="AM9" s="52"/>
+      <c r="AN9" s="52"/>
+      <c r="AO9" s="52"/>
+      <c r="AP9" s="52"/>
+      <c r="AQ9" s="52"/>
+      <c r="AR9" s="52"/>
+      <c r="AS9" s="52"/>
+      <c r="AT9" s="52"/>
+      <c r="AU9" s="52"/>
+      <c r="AV9" s="52"/>
+      <c r="AW9" s="52"/>
+      <c r="AX9" s="52"/>
+      <c r="AY9" s="52"/>
+      <c r="AZ9" s="52"/>
+      <c r="BA9" s="52"/>
+      <c r="BB9" s="52"/>
+      <c r="BC9" s="52"/>
+      <c r="BD9" s="52"/>
+      <c r="BE9" s="52"/>
+      <c r="BF9" s="52"/>
+      <c r="BG9" s="52"/>
+      <c r="BH9" s="52"/>
+      <c r="BI9" s="52"/>
+      <c r="BJ9" s="52"/>
+      <c r="BK9" s="52"/>
+      <c r="BL9" s="52"/>
+      <c r="BM9" s="52"/>
+      <c r="BN9" s="52"/>
+      <c r="BO9" s="52"/>
+      <c r="BP9" s="52"/>
+      <c r="BR9" s="52"/>
+      <c r="BS9" s="52"/>
+      <c r="BT9" s="52"/>
+      <c r="BU9" s="52"/>
+      <c r="BV9" s="52"/>
+      <c r="BW9" s="52"/>
+      <c r="BX9" s="52"/>
+      <c r="BY9" s="52"/>
+      <c r="CA9" s="52"/>
+      <c r="CC9" s="52"/>
+      <c r="CD9" s="52"/>
+      <c r="CE9" s="52"/>
+      <c r="CF9" s="52"/>
+      <c r="CG9" s="52"/>
+      <c r="CQ9" s="52"/>
+      <c r="CS9" s="52"/>
+      <c r="CT9" s="52"/>
+      <c r="CU9" s="52"/>
+      <c r="CV9" s="52"/>
+      <c r="CW9" s="52"/>
+      <c r="CX9" s="52"/>
+      <c r="CY9" s="52"/>
+      <c r="CZ9" s="52"/>
+    </row>
+    <row r="10" spans="1:129" s="9" customFormat="1">
+      <c r="A10" s="63" t="s">
+        <v>418</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="8"/>
+      <c r="AV10" s="8"/>
+      <c r="AW10" s="8"/>
+      <c r="AX10" s="8"/>
+      <c r="AY10" s="8"/>
+      <c r="AZ10" s="8"/>
+      <c r="BA10" s="8"/>
+      <c r="BB10" s="8"/>
+      <c r="BC10" s="8"/>
+      <c r="BD10" s="8"/>
+      <c r="BE10" s="8"/>
+      <c r="BF10" s="8"/>
+      <c r="BG10" s="8"/>
+      <c r="BH10" s="8"/>
+      <c r="BI10" s="8"/>
+      <c r="BJ10" s="8"/>
+      <c r="BK10" s="8"/>
+      <c r="BL10" s="8"/>
+      <c r="BM10" s="8"/>
+      <c r="BN10" s="8"/>
+      <c r="BO10" s="8"/>
+      <c r="BP10" s="8"/>
+      <c r="BR10" s="8"/>
+      <c r="BS10" s="8"/>
+      <c r="BT10" s="8"/>
+      <c r="BU10" s="8"/>
+      <c r="BV10" s="8"/>
+      <c r="BW10" s="8"/>
+      <c r="BX10" s="8"/>
+      <c r="BY10" s="8"/>
+      <c r="CA10" s="8"/>
+      <c r="CC10" s="8"/>
+      <c r="CD10" s="8"/>
+      <c r="CE10" s="8"/>
+      <c r="CF10" s="8"/>
+      <c r="CG10" s="8"/>
+      <c r="CQ10" s="8"/>
+      <c r="CS10" s="8"/>
+      <c r="CT10" s="8"/>
+      <c r="CU10" s="8"/>
+      <c r="CV10" s="8"/>
+      <c r="CW10" s="8"/>
+      <c r="CX10" s="8"/>
+      <c r="CY10" s="8"/>
+      <c r="CZ10" s="8"/>
+    </row>
+    <row r="11" spans="1:129" s="11" customFormat="1" ht="38.25">
+      <c r="A11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I11" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O11" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="R11" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="S11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="T11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="W11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE11" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG11" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH11" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN11" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR11" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW11" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA11" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB11" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF11" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG11" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="BH11" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI11" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="BJ11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM11" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BN11" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="BO11" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="BP11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ11" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="BR11" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="BS11" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT11" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU11" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="BV11" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="BW11" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="BY11" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="BZ11" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="CA11" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="CB11" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="CC11" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="CD11" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="CE11" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="CF11" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="CG11" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="CH11" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="CI11" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="CJ11" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="CK11" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="CL11" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="CM11" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="CN11" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO11" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="CP11" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="CQ11" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="CR11" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="CS11" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="CT11" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="CU11" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="CV11" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="CW11" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="CX11" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="CY11" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="CZ11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="DA11" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="DB11" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="DC11" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="DD11" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="DE11" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="DF11" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="DG11" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="DH11" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="DI11" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="DJ11" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="DK11" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="DL11" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="DM11" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="DN11" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="DO11" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="DP11" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="DQ11" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR11" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="DS11" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="DT11" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="DU11" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="DV11" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="DW11" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="DX11" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:129" s="5" customFormat="1" ht="51">
+      <c r="A12" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="R12" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="S6" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="U6" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="V6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="W6" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="X6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE6" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG6" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH6" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ6" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK6" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN6" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AP6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ6" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="AR6" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT6" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW6" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA6" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="BB6" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE6" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="BF6" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG6" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="BH6" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="BI6" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="BJ6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BK6" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL6" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="BM6" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="BN6" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="BO6" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="BP6" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="BQ6" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="BR6" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BS6" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="BT6" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="BU6" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="BV6" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="BW6" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="BX6" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="BY6" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="BZ6" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="CA6" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="CB6" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="CC6" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="CD6" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="CE6" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="CF6" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="CG6" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="CH6" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="CI6" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="CJ6" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="CK6" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="CL6" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="CM6" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="CN6" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="CO6" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP6" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="CQ6" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="CR6" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="CS6" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="CT6" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="CU6" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="CV6" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="CW6" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="CX6" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="CY6" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="CZ6" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="DA6" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="DB6" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="DC6" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="DD6" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="DE6" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="DF6" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="DG6" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="DH6" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="DI6" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="DJ6" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="DK6" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="DL6" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="DM6" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="DN6" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="DO6" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="DP6" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="DQ6" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="DR6" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="DS6" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="DT6" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="DU6" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="DV6" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="DW6" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="DX6" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:128" s="5" customFormat="1" ht="51">
-      <c r="A7" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q7" s="5" t="s">
+      <c r="T12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="X12" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U7" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="X7" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z7" s="14" t="s">
+      <c r="Z12" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="AA7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14" t="s">
+      <c r="AA12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="AD7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH7" s="5" t="s">
+      <c r="AD12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH12" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="AI7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN7" s="5" t="s">
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="AO7" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AR7" s="5" t="s">
+      <c r="AO12" s="14"/>
+      <c r="AR12" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="AS7" s="14"/>
-      <c r="AT7" s="14"/>
-      <c r="AU7" s="14"/>
-      <c r="AV7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW7" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="AX7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY7" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="AZ7" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="BA7" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="BB7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC7" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="BE7" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="BF7" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="BG7" s="14"/>
-      <c r="BH7" s="14"/>
-      <c r="BI7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ7" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="BK7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BL7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BM7" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="BN7" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="BO7" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="BP7" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="BR7" s="4"/>
-      <c r="BS7" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="BT7" s="4"/>
-      <c r="BU7" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="BV7" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="BW7" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="BX7" s="14"/>
-      <c r="BY7" s="4"/>
-      <c r="CA7" s="4"/>
-      <c r="CB7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="CC7" s="14"/>
-      <c r="CD7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="CE7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="CF7" s="4"/>
-      <c r="CG7" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="CH7" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="CI7" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="CJ7" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="CK7" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="CL7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="CM7" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="CN7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="CO7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="CP7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="CQ7" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="CR7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CS7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CT7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CU7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="CV7" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="CW7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX7" s="4"/>
-      <c r="CY7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CZ7" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:128" s="9" customFormat="1">
-      <c r="A9" s="63" t="s">
-        <v>384</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AL9" s="8"/>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="8"/>
-      <c r="AO9" s="8"/>
-      <c r="AP9" s="8"/>
-      <c r="AQ9" s="8"/>
-      <c r="AR9" s="8"/>
-      <c r="AS9" s="8"/>
-      <c r="AT9" s="8"/>
-      <c r="AU9" s="8"/>
-      <c r="AV9" s="8"/>
-      <c r="AW9" s="8"/>
-      <c r="AX9" s="8"/>
-      <c r="AY9" s="8"/>
-      <c r="AZ9" s="8"/>
-      <c r="BA9" s="8"/>
-      <c r="BB9" s="8"/>
-      <c r="BC9" s="8"/>
-      <c r="BD9" s="8"/>
-      <c r="BE9" s="8"/>
-      <c r="BF9" s="8"/>
-      <c r="BG9" s="8"/>
-      <c r="BH9" s="8"/>
-      <c r="BI9" s="8"/>
-      <c r="BJ9" s="8"/>
-      <c r="BK9" s="8"/>
-      <c r="BL9" s="8"/>
-      <c r="BM9" s="8"/>
-      <c r="BN9" s="8"/>
-      <c r="BO9" s="8"/>
-      <c r="BP9" s="8"/>
-      <c r="BR9" s="8"/>
-      <c r="BS9" s="8"/>
-      <c r="BT9" s="8"/>
-      <c r="BU9" s="8"/>
-      <c r="BV9" s="8"/>
-      <c r="BW9" s="8"/>
-      <c r="BX9" s="8"/>
-      <c r="BY9" s="8"/>
-      <c r="CA9" s="8"/>
-      <c r="CC9" s="8"/>
-      <c r="CD9" s="8"/>
-      <c r="CE9" s="8"/>
-      <c r="CF9" s="8"/>
-      <c r="CG9" s="8"/>
-      <c r="CQ9" s="8"/>
-      <c r="CS9" s="8"/>
-      <c r="CT9" s="8"/>
-      <c r="CU9" s="8"/>
-      <c r="CV9" s="8"/>
-      <c r="CW9" s="8"/>
-      <c r="CX9" s="8"/>
-      <c r="CY9" s="8"/>
-      <c r="CZ9" s="8"/>
-    </row>
-    <row r="10" spans="1:128" s="11" customFormat="1" ht="38.25">
-      <c r="A10" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="R10" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="S10" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="T10" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="U10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="V10" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="W10" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="X10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE10" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG10" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH10" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN10" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AP10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ10" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="AR10" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW10" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA10" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="BB10" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE10" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="BF10" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG10" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="BH10" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="BI10" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="BJ10" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BK10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL10" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="BM10" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="BN10" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="BO10" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="BP10" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="BQ10" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="BR10" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BS10" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="BT10" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="BU10" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="BV10" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="BW10" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="BX10" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="BY10" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="BZ10" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="CA10" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="CB10" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="CC10" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="CD10" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="CE10" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="CF10" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="CG10" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="CH10" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="CI10" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="CJ10" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="CK10" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="CL10" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="CM10" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="CN10" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="CO10" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="CP10" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="CQ10" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="CR10" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="CS10" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="CT10" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="CU10" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="CV10" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="CW10" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="CX10" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="CY10" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="CZ10" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="DA10" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="DB10" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="DC10" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="DD10" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="DE10" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="DF10" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="DG10" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="DH10" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="DI10" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="DJ10" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="DK10" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="DL10" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="DM10" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="DN10" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="DO10" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="DP10" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="DQ10" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="DR10" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="DS10" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="DT10" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="DU10" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="DV10" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="DW10" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="DX10" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:128" s="5" customFormat="1" ht="51">
-      <c r="A11" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>385</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U11" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="V11" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="W11" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="X11" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z11" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA11" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="AD11" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH11" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="AM11" s="14"/>
-      <c r="AN11" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="AO11" s="14"/>
-      <c r="AR11" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="AS11" s="14"/>
-      <c r="AT11" s="14"/>
-      <c r="AU11" s="14"/>
-      <c r="AW11" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="AX11" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY11" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="AZ11" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="BA11" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="BB11" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="BC11" s="14"/>
-      <c r="BD11" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="BE11" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="BF11" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="BG11" s="14"/>
-      <c r="BH11" s="14"/>
-      <c r="BI11" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ11" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="BK11" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BL11" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BM11" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="BN11" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="BO11" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="BP11" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="BQ11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BR11" s="4"/>
-      <c r="BS11" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="BT11" s="4"/>
-      <c r="BU11" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="BV11" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="BW11" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="BX11" s="14"/>
-      <c r="BY11" s="4"/>
-      <c r="BZ11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="CA11" s="4"/>
-      <c r="CB11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="CC11" s="14"/>
-      <c r="CD11" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="CE11" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="CF11" s="4"/>
-      <c r="CG11" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="CH11" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="CI11" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="CJ11" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="CK11" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="CL11" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="CM11" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="CN11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="CO11" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="CP11" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="CQ11" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="CR11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CS11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CT11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CU11" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="CV11" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="CW11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX11" s="4"/>
-      <c r="CY11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CZ11" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:128" s="5" customFormat="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="6"/>
-      <c r="AM12" s="14"/>
-      <c r="AO12" s="14"/>
-      <c r="AR12" s="14"/>
       <c r="AS12" s="14"/>
       <c r="AT12" s="14"/>
       <c r="AU12" s="14"/>
-      <c r="AW12" s="14"/>
-      <c r="AX12" s="14"/>
-      <c r="AY12" s="14"/>
-      <c r="AZ12" s="14"/>
-      <c r="BA12" s="14"/>
+      <c r="AW12" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="AX12" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ12" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="BA12" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="BB12" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="BC12" s="14"/>
-      <c r="BD12" s="14"/>
-      <c r="BE12" s="14"/>
-      <c r="BF12" s="14"/>
+      <c r="BD12" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BE12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF12" s="14" t="s">
+        <v>314</v>
+      </c>
       <c r="BG12" s="14"/>
       <c r="BH12" s="14"/>
-      <c r="BI12" s="14"/>
-      <c r="BJ12" s="14"/>
-      <c r="BK12" s="14"/>
-      <c r="BL12" s="14"/>
-      <c r="BM12" s="14"/>
-      <c r="BN12" s="14"/>
-      <c r="BO12" s="14"/>
-      <c r="BP12" s="14"/>
+      <c r="BI12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ12" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM12" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN12" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="BO12" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="BP12" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="BR12" s="4"/>
-      <c r="BS12" s="4"/>
-      <c r="BT12" s="4"/>
-      <c r="BU12" s="4"/>
-      <c r="BV12" s="4"/>
+      <c r="BS12" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="BT12" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="BU12" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="BV12" s="4" t="s">
+        <v>321</v>
+      </c>
       <c r="BW12" s="4"/>
       <c r="BX12" s="14"/>
       <c r="BY12" s="4"/>
       <c r="CA12" s="4"/>
+      <c r="CB12" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="CC12" s="14"/>
-      <c r="CD12" s="4"/>
-      <c r="CE12" s="4"/>
+      <c r="CD12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="CE12" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="CF12" s="4"/>
-      <c r="CG12" s="23"/>
-      <c r="CH12" s="14"/>
-      <c r="CJ12" s="23"/>
-      <c r="CK12" s="14"/>
-      <c r="CL12" s="14"/>
-      <c r="CM12" s="14"/>
-      <c r="CP12" s="4"/>
-      <c r="CQ12" s="4"/>
-      <c r="CR12" s="4"/>
-      <c r="CS12" s="4"/>
-      <c r="CT12" s="4"/>
-      <c r="CU12" s="4"/>
-      <c r="CV12" s="4"/>
-      <c r="CW12" s="4"/>
-      <c r="CX12" s="4"/>
+      <c r="CG12" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="CH12" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="CI12" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="CJ12" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="CK12" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="CL12" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CM12" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="CN12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="CP12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="CQ12" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="CR12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CT12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="CV12" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="CW12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX12" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="CY12" s="4"/>
-      <c r="CZ12" s="23"/>
+      <c r="CZ12" s="23" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="13" spans="1:128">
-      <c r="A13" s="52"/>
-    </row>
-    <row r="14" spans="1:128" s="32" customFormat="1">
+    <row r="14" spans="1:129" s="32" customFormat="1">
       <c r="A14" s="29"/>
       <c r="B14" s="30"/>
       <c r="C14" s="29"/>
@@ -5729,7 +5849,7 @@
       <c r="CY14" s="31"/>
       <c r="CZ14" s="31"/>
     </row>
-    <row r="15" spans="1:128" s="32" customFormat="1">
+    <row r="15" spans="1:129" s="32" customFormat="1">
       <c r="A15" s="29"/>
       <c r="B15" s="30"/>
       <c r="C15" s="29"/>
@@ -5833,7 +5953,7 @@
       <c r="CY15" s="31"/>
       <c r="CZ15" s="31"/>
     </row>
-    <row r="16" spans="1:128" s="5" customFormat="1">
+    <row r="16" spans="1:129" s="5" customFormat="1">
       <c r="A16" s="48"/>
       <c r="B16" s="27"/>
       <c r="C16" s="26"/>
@@ -6030,7 +6150,7 @@
         <v>17</v>
       </c>
       <c r="R18" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S18" s="15" t="s">
         <v>58</v>
@@ -6402,7 +6522,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>52</v>
@@ -6429,7 +6549,7 @@
         <v>14</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T19" s="5" t="s">
         <v>3</v>
@@ -6783,7 +6903,7 @@
         <v>17</v>
       </c>
       <c r="R22" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S22" s="15" t="s">
         <v>58</v>
@@ -7154,7 +7274,7 @@
         <v>14</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T23" s="5" t="s">
         <v>3</v>
@@ -7429,7 +7549,7 @@
     </row>
     <row r="25" spans="1:138" s="9" customFormat="1">
       <c r="A25" s="43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B25" s="8"/>
       <c r="E25" s="8"/>
@@ -7552,7 +7672,7 @@
         <v>17</v>
       </c>
       <c r="R26" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S26" s="15" t="s">
         <v>58</v>
@@ -7923,7 +8043,7 @@
         <v>14</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T27" s="5" t="s">
         <v>3</v>
@@ -8250,7 +8370,7 @@
         <v>17</v>
       </c>
       <c r="R30" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S30" s="15" t="s">
         <v>58</v>
@@ -8573,7 +8693,7 @@
         <v>14</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T31" s="5" t="s">
         <v>3</v>
@@ -8898,7 +9018,7 @@
         <v>17</v>
       </c>
       <c r="R34" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S34" s="15" t="s">
         <v>58</v>
@@ -9242,7 +9362,7 @@
         <v>16</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E35" s="23" t="s">
         <v>52</v>
@@ -9269,7 +9389,7 @@
         <v>14</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T35" s="5" t="s">
         <v>3</v>
@@ -9537,7 +9657,7 @@
     <row r="36" spans="1:132">
       <c r="A36" s="52"/>
     </row>
-    <row r="37" spans="1:132" s="9" customFormat="1">
+    <row r="37" spans="1:132" s="9" customFormat="1" ht="409.6">
       <c r="A37" s="63" t="s">
         <v>350</v>
       </c>
@@ -9662,7 +9782,7 @@
         <v>17</v>
       </c>
       <c r="R38" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S38" s="15" t="s">
         <v>58</v>
@@ -10033,7 +10153,7 @@
         <v>14</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S39" s="5" t="s">
         <v>124</v>
@@ -10304,10 +10424,10 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:132">
+    <row r="40" spans="1:132" ht="409.6">
       <c r="A40" s="52"/>
     </row>
-    <row r="41" spans="1:132" s="9" customFormat="1">
+    <row r="41" spans="1:132" s="9" customFormat="1" ht="409.6">
       <c r="A41" s="63" t="s">
         <v>290</v>
       </c>
@@ -10432,7 +10552,7 @@
         <v>17</v>
       </c>
       <c r="R42" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S42" s="15" t="s">
         <v>58</v>
@@ -10776,7 +10896,7 @@
         <v>16</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>52</v>
@@ -10803,7 +10923,7 @@
         <v>14</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T43" s="5" t="s">
         <v>3</v>
@@ -11064,7 +11184,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="45" spans="1:132" s="9" customFormat="1">
+    <row r="45" spans="1:132" s="9" customFormat="1" ht="409.6">
       <c r="A45" s="43" t="s">
         <v>295</v>
       </c>
@@ -11189,7 +11309,7 @@
         <v>17</v>
       </c>
       <c r="R46" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S46" s="15" t="s">
         <v>58</v>
@@ -11545,7 +11665,7 @@
         <v>16</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E47" s="23" t="s">
         <v>52</v>
@@ -11572,7 +11692,7 @@
         <v>14</v>
       </c>
       <c r="R47" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T47" s="5" t="s">
         <v>3</v>
@@ -11785,9 +11905,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:128" s="9" customFormat="1">
+    <row r="49" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A49" s="43" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B49" s="8"/>
       <c r="E49" s="8"/>
@@ -11910,7 +12030,7 @@
         <v>17</v>
       </c>
       <c r="R50" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S50" s="15" t="s">
         <v>58</v>
@@ -12281,7 +12401,7 @@
         <v>14</v>
       </c>
       <c r="R51" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T51" s="5" t="s">
         <v>3</v>
@@ -12482,9 +12602,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:128" s="9" customFormat="1">
+    <row r="53" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A53" s="63" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B53" s="8"/>
       <c r="E53" s="8"/>
@@ -12607,7 +12727,7 @@
         <v>17</v>
       </c>
       <c r="R54" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S54" s="15" t="s">
         <v>58</v>
@@ -12978,7 +13098,7 @@
         <v>14</v>
       </c>
       <c r="R55" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S55" s="5" t="s">
         <v>124</v>
@@ -13077,7 +13197,7 @@
         <v>314</v>
       </c>
       <c r="BG55" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="BH55" s="14" t="s">
         <v>314</v>
@@ -13147,7 +13267,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:128" s="5" customFormat="1">
+    <row r="56" spans="1:128" s="5" customFormat="1" ht="409.6">
       <c r="A56" s="12"/>
       <c r="B56" s="27"/>
       <c r="C56" s="26"/>
@@ -13217,9 +13337,9 @@
       <c r="CY56" s="4"/>
       <c r="CZ56" s="23"/>
     </row>
-    <row r="57" spans="1:128" s="9" customFormat="1">
+    <row r="57" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A57" s="63" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B57" s="8"/>
       <c r="E57" s="8"/>
@@ -13342,7 +13462,7 @@
         <v>17</v>
       </c>
       <c r="R58" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S58" s="15" t="s">
         <v>58</v>
@@ -13713,7 +13833,7 @@
         <v>14</v>
       </c>
       <c r="R59" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T59" s="5" t="s">
         <v>3</v>
@@ -13908,7 +14028,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:128" s="5" customFormat="1">
+    <row r="60" spans="1:128" s="5" customFormat="1" ht="409.6">
       <c r="A60" s="48"/>
       <c r="B60" s="27"/>
       <c r="C60" s="26"/>
@@ -13980,9 +14100,9 @@
       <c r="CY60" s="4"/>
       <c r="CZ60" s="23"/>
     </row>
-    <row r="61" spans="1:128" s="9" customFormat="1">
+    <row r="61" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A61" s="43" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B61" s="8"/>
       <c r="E61" s="8"/>
@@ -14105,7 +14225,7 @@
         <v>17</v>
       </c>
       <c r="R62" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S62" s="15" t="s">
         <v>58</v>
@@ -14476,7 +14596,7 @@
         <v>14</v>
       </c>
       <c r="R63" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T63" s="5" t="s">
         <v>3</v>
@@ -14678,9 +14798,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:128" s="9" customFormat="1">
+    <row r="65" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A65" s="63" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B65" s="8"/>
       <c r="E65" s="8"/>
@@ -14803,7 +14923,7 @@
         <v>17</v>
       </c>
       <c r="R66" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S66" s="15" t="s">
         <v>58</v>
@@ -15174,7 +15294,7 @@
         <v>14</v>
       </c>
       <c r="R67" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T67" s="5" t="s">
         <v>3</v>
@@ -15270,7 +15390,7 @@
         <v>314</v>
       </c>
       <c r="BG67" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="BH67" s="14" t="s">
         <v>314</v>
@@ -15344,9 +15464,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:128" s="25" customFormat="1">
+    <row r="69" spans="1:128" s="25" customFormat="1" ht="409.6">
       <c r="A69" s="63" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B69" s="38"/>
       <c r="E69" s="38"/>
@@ -15469,7 +15589,7 @@
         <v>17</v>
       </c>
       <c r="R70" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S70" s="15" t="s">
         <v>58</v>
@@ -15619,7 +15739,7 @@
         <v>51</v>
       </c>
       <c r="BP70" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="BQ70" s="15" t="s">
         <v>226</v>
@@ -15634,10 +15754,10 @@
         <v>120</v>
       </c>
       <c r="BU70" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="BV70" s="16" t="s">
         <v>411</v>
-      </c>
-      <c r="BV70" s="16" t="s">
-        <v>412</v>
       </c>
       <c r="BW70" s="16" t="s">
         <v>121</v>
@@ -15840,7 +15960,7 @@
         <v>14</v>
       </c>
       <c r="R71" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T71" s="5" t="s">
         <v>3</v>
@@ -15975,18 +16095,18 @@
         <v>140</v>
       </c>
       <c r="BP71" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="BR71" s="4"/>
       <c r="BS71" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="BT71" s="4"/>
       <c r="BU71" s="4" t="s">
         <v>321</v>
       </c>
       <c r="BV71" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="BW71" s="4"/>
       <c r="BX71" s="14"/>
@@ -16004,7 +16124,7 @@
       </c>
       <c r="CF71" s="4"/>
       <c r="CG71" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="CH71" s="14" t="s">
         <v>118</v>
@@ -16034,7 +16154,7 @@
         <v>109</v>
       </c>
       <c r="CQ71" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="CR71" s="4" t="s">
         <v>3</v>
@@ -16049,7 +16169,7 @@
         <v>109</v>
       </c>
       <c r="CV71" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="CW71" s="4" t="s">
         <v>3</v>
@@ -16062,7 +16182,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:128" s="5" customFormat="1">
+    <row r="72" spans="1:128" s="5" customFormat="1" ht="409.6">
       <c r="A72" s="48"/>
       <c r="B72" s="27"/>
       <c r="C72" s="26"/>
@@ -16134,7 +16254,7 @@
       <c r="CY72" s="4"/>
       <c r="CZ72" s="23"/>
     </row>
-    <row r="73" spans="1:128" s="9" customFormat="1">
+    <row r="73" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A73" s="63" t="s">
         <v>364</v>
       </c>
@@ -16693,7 +16813,7 @@
       <c r="CY75" s="4"/>
       <c r="CZ75" s="23"/>
     </row>
-    <row r="77" spans="1:128" s="9" customFormat="1">
+    <row r="77" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A77" s="63" t="s">
         <v>365</v>
       </c>
@@ -17252,10 +17372,10 @@
       <c r="CY79" s="4"/>
       <c r="CZ79" s="23"/>
     </row>
-    <row r="80" spans="1:128">
+    <row r="80" spans="1:128" ht="409.6">
       <c r="D80" s="12"/>
     </row>
-    <row r="81" spans="1:128" s="9" customFormat="1">
+    <row r="81" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A81" s="63" t="s">
         <v>369</v>
       </c>
@@ -17721,7 +17841,7 @@
         <v>361</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>274</v>
@@ -17814,7 +17934,7 @@
       <c r="CY83" s="4"/>
       <c r="CZ83" s="23"/>
     </row>
-    <row r="85" spans="1:128" s="9" customFormat="1">
+    <row r="85" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A85" s="63" t="s">
         <v>370</v>
       </c>
@@ -18280,7 +18400,7 @@
         <v>360</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D87" s="14" t="s">
         <v>273</v>
@@ -18376,10 +18496,10 @@
       <c r="CY87" s="4"/>
       <c r="CZ87" s="23"/>
     </row>
-    <row r="88" spans="1:128">
+    <row r="88" spans="1:128" ht="409.6">
       <c r="D88" s="12"/>
     </row>
-    <row r="89" spans="1:128" s="9" customFormat="1">
+    <row r="89" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A89" s="63" t="s">
         <v>367</v>
       </c>
@@ -18504,7 +18624,7 @@
         <v>17</v>
       </c>
       <c r="R90" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S90" s="15" t="s">
         <v>58</v>
@@ -18875,7 +18995,7 @@
         <v>14</v>
       </c>
       <c r="R91" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T91" s="5" t="s">
         <v>3</v>
@@ -19163,7 +19283,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="93" spans="1:128" s="9" customFormat="1">
+    <row r="93" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A93" s="63" t="s">
         <v>368</v>
       </c>
@@ -19288,7 +19408,7 @@
         <v>17</v>
       </c>
       <c r="R94" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S94" s="15" t="s">
         <v>58</v>
@@ -19659,7 +19779,7 @@
         <v>14</v>
       </c>
       <c r="R95" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T95" s="5" t="s">
         <v>3</v>
@@ -19944,7 +20064,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="96" spans="1:128" s="32" customFormat="1">
+    <row r="96" spans="1:128" s="32" customFormat="1" ht="409.6">
       <c r="A96" s="29"/>
       <c r="B96" s="30"/>
       <c r="C96" s="29"/>
@@ -20048,10 +20168,10 @@
       <c r="CY96" s="31"/>
       <c r="CZ96" s="31"/>
     </row>
-    <row r="97" spans="1:128">
+    <row r="97" spans="1:128" ht="409.6">
       <c r="A97" s="52"/>
     </row>
-    <row r="98" spans="1:128" s="32" customFormat="1">
+    <row r="98" spans="1:128" s="32" customFormat="1" ht="409.6">
       <c r="A98" s="29"/>
       <c r="B98" s="30"/>
       <c r="C98" s="29"/>
@@ -20155,7 +20275,7 @@
       <c r="CY98" s="31"/>
       <c r="CZ98" s="31"/>
     </row>
-    <row r="99" spans="1:128" s="9" customFormat="1">
+    <row r="99" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A99" s="62" t="s">
         <v>298</v>
       </c>
@@ -20280,7 +20400,7 @@
         <v>17</v>
       </c>
       <c r="R100" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S100" s="15" t="s">
         <v>58</v>
@@ -20553,7 +20673,7 @@
         <v>16</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E101" s="41" t="s">
         <v>53</v>
@@ -20586,7 +20706,7 @@
         <v>5</v>
       </c>
       <c r="R101" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S101" s="5" t="s">
         <v>124</v>
@@ -20744,7 +20864,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:128" s="9" customFormat="1">
+    <row r="103" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A103" s="62" t="s">
         <v>299</v>
       </c>
@@ -20869,7 +20989,7 @@
         <v>17</v>
       </c>
       <c r="R104" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S104" s="15" t="s">
         <v>58</v>
@@ -21231,7 +21351,7 @@
         <v>371</v>
       </c>
       <c r="R105" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S105" s="5" t="s">
         <v>124</v>
@@ -21399,7 +21519,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="107" spans="1:128" s="9" customFormat="1">
+    <row r="107" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A107" s="53" t="s">
         <v>300</v>
       </c>
@@ -21524,7 +21644,7 @@
         <v>17</v>
       </c>
       <c r="R108" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S108" s="15" t="s">
         <v>58</v>
@@ -21836,7 +21956,7 @@
         <v>371</v>
       </c>
       <c r="R109" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S109" s="5" t="s">
         <v>124</v>
@@ -22005,7 +22125,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="1:128" s="9" customFormat="1">
+    <row r="111" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A111" s="62" t="s">
         <v>289</v>
       </c>
@@ -22130,7 +22250,7 @@
         <v>17</v>
       </c>
       <c r="R112" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S112" s="15" t="s">
         <v>58</v>
@@ -22501,7 +22621,7 @@
         <v>14</v>
       </c>
       <c r="R113" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S113" s="5" t="s">
         <v>124</v>
@@ -22719,7 +22839,7 @@
         <v>53</v>
       </c>
       <c r="DA113" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="DB113" s="24" t="s">
         <v>53</v>
@@ -22785,7 +22905,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="115" spans="1:128" s="9" customFormat="1">
+    <row r="115" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A115" s="62" t="s">
         <v>287</v>
       </c>
@@ -22910,7 +23030,7 @@
         <v>17</v>
       </c>
       <c r="R116" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S116" s="15" t="s">
         <v>58</v>
@@ -23281,7 +23401,7 @@
         <v>14</v>
       </c>
       <c r="R117" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S117" s="5" t="s">
         <v>124</v>
@@ -23499,7 +23619,7 @@
         <v>53</v>
       </c>
       <c r="DA117" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="DB117" s="24" t="s">
         <v>53</v>
@@ -23565,7 +23685,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="119" spans="1:128" s="9" customFormat="1">
+    <row r="119" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A119" s="62" t="s">
         <v>351</v>
       </c>
@@ -23690,7 +23810,7 @@
         <v>17</v>
       </c>
       <c r="R120" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S120" s="15" t="s">
         <v>58</v>
@@ -24061,7 +24181,7 @@
         <v>14</v>
       </c>
       <c r="R121" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S121" s="5" t="s">
         <v>124</v>
@@ -24345,7 +24465,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="123" spans="1:128" s="9" customFormat="1">
+    <row r="123" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A123" s="62" t="s">
         <v>301</v>
       </c>
@@ -24470,7 +24590,7 @@
         <v>17</v>
       </c>
       <c r="R124" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S124" s="15" t="s">
         <v>58</v>
@@ -24814,7 +24934,7 @@
         <v>16</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E125" s="41" t="s">
         <v>53</v>
@@ -24847,7 +24967,7 @@
         <v>5</v>
       </c>
       <c r="R125" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S125" s="5" t="s">
         <v>124</v>
@@ -25078,9 +25198,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="127" spans="1:128" s="9" customFormat="1">
+    <row r="127" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A127" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B127" s="8"/>
       <c r="E127" s="8"/>
@@ -25203,7 +25323,7 @@
         <v>17</v>
       </c>
       <c r="R128" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S128" s="15" t="s">
         <v>58</v>
@@ -25565,7 +25685,7 @@
         <v>371</v>
       </c>
       <c r="R129" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S129" s="5" t="s">
         <v>124</v>
@@ -25726,9 +25846,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="131" spans="1:128" s="9" customFormat="1">
+    <row r="131" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A131" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B131" s="8"/>
       <c r="E131" s="8"/>
@@ -25851,7 +25971,7 @@
         <v>17</v>
       </c>
       <c r="R132" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S132" s="15" t="s">
         <v>58</v>
@@ -26213,7 +26333,7 @@
         <v>371</v>
       </c>
       <c r="R133" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S133" s="5" t="s">
         <v>124</v>
@@ -26268,7 +26388,7 @@
       <c r="BE133" s="14"/>
       <c r="BF133" s="14"/>
       <c r="BG133" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="BH133" s="14" t="s">
         <v>314</v>
@@ -26353,9 +26473,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="135" spans="1:128" s="9" customFormat="1">
+    <row r="135" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A135" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B135" s="8"/>
       <c r="E135" s="8"/>
@@ -26478,7 +26598,7 @@
         <v>17</v>
       </c>
       <c r="R136" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S136" s="15" t="s">
         <v>58</v>
@@ -26840,7 +26960,7 @@
         <v>371</v>
       </c>
       <c r="R137" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S137" s="5" t="s">
         <v>124</v>
@@ -26999,9 +27119,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="139" spans="1:128" s="9" customFormat="1">
+    <row r="139" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A139" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B139" s="8"/>
       <c r="E139" s="8"/>
@@ -27124,7 +27244,7 @@
         <v>17</v>
       </c>
       <c r="R140" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S140" s="15" t="s">
         <v>58</v>
@@ -27486,7 +27606,7 @@
         <v>371</v>
       </c>
       <c r="R141" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S141" s="5" t="s">
         <v>124</v>
@@ -27541,7 +27661,7 @@
       <c r="BE141" s="14"/>
       <c r="BF141" s="14"/>
       <c r="BG141" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="BH141" s="14" t="s">
         <v>314</v>
@@ -27625,9 +27745,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="143" spans="1:128" s="9" customFormat="1">
+    <row r="143" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A143" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B143" s="8"/>
       <c r="E143" s="8"/>
@@ -27750,7 +27870,7 @@
         <v>17</v>
       </c>
       <c r="R144" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S144" s="15" t="s">
         <v>58</v>
@@ -28112,7 +28232,7 @@
         <v>371</v>
       </c>
       <c r="R145" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S145" s="5" t="s">
         <v>124</v>
@@ -28271,9 +28391,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="147" spans="1:128" s="9" customFormat="1">
+    <row r="147" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A147" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B147" s="8"/>
       <c r="E147" s="8"/>
@@ -28396,7 +28516,7 @@
         <v>17</v>
       </c>
       <c r="R148" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S148" s="15" t="s">
         <v>58</v>
@@ -28758,7 +28878,7 @@
         <v>311</v>
       </c>
       <c r="R149" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S149" s="5" t="s">
         <v>124</v>
@@ -28917,7 +29037,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="151" spans="1:128" s="32" customFormat="1">
+    <row r="151" spans="1:128" s="32" customFormat="1" ht="409.6">
       <c r="A151" s="29"/>
       <c r="B151" s="30"/>
       <c r="C151" s="29"/>
@@ -29021,10 +29141,10 @@
       <c r="CY151" s="31"/>
       <c r="CZ151" s="31"/>
     </row>
-    <row r="152" spans="1:128">
+    <row r="152" spans="1:128" ht="409.6">
       <c r="A152" s="52"/>
     </row>
-    <row r="153" spans="1:128" s="32" customFormat="1">
+    <row r="153" spans="1:128" s="32" customFormat="1" ht="409.6">
       <c r="A153" s="29"/>
       <c r="B153" s="30"/>
       <c r="C153" s="29"/>
@@ -29128,7 +29248,7 @@
       <c r="CY153" s="31"/>
       <c r="CZ153" s="31"/>
     </row>
-    <row r="154" spans="1:128" s="25" customFormat="1">
+    <row r="154" spans="1:128" s="25" customFormat="1" ht="409.6">
       <c r="A154" s="7" t="s">
         <v>214</v>
       </c>
@@ -30078,7 +30198,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="166" spans="1:55" s="35" customFormat="1">
+    <row r="166" spans="1:55" s="35" customFormat="1" ht="409.6">
       <c r="B166" s="36"/>
       <c r="E166" s="37"/>
       <c r="M166" s="37"/>
@@ -30102,7 +30222,7 @@
       <c r="AV166" s="37"/>
       <c r="BA166" s="37"/>
     </row>
-    <row r="167" spans="1:55" s="25" customFormat="1">
+    <row r="167" spans="1:55" s="25" customFormat="1" ht="409.6">
       <c r="A167" s="7" t="s">
         <v>215</v>
       </c>
@@ -31052,7 +31172,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="179" spans="1:128" s="35" customFormat="1">
+    <row r="179" spans="1:128" s="35" customFormat="1" ht="409.6">
       <c r="B179" s="36"/>
       <c r="E179" s="37"/>
       <c r="M179" s="37"/>
@@ -31076,7 +31196,7 @@
       <c r="AV179" s="37"/>
       <c r="BA179" s="37"/>
     </row>
-    <row r="180" spans="1:128" s="9" customFormat="1">
+    <row r="180" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A180" s="43" t="s">
         <v>222</v>
       </c>
@@ -31605,7 +31725,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="183" spans="1:128" s="5" customFormat="1">
+    <row r="183" spans="1:128" s="5" customFormat="1" ht="409.6">
       <c r="A183" s="33"/>
       <c r="B183" s="42"/>
       <c r="C183" s="26"/>
@@ -31668,14 +31788,14 @@
       <c r="CZ183" s="14"/>
       <c r="DF183" s="14"/>
     </row>
-    <row r="191" spans="1:128">
+    <row r="191" spans="1:128" ht="409.6">
       <c r="A191" s="52" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="192" spans="1:128" s="9" customFormat="1">
+    <row r="192" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A192" s="43" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B192" s="8"/>
       <c r="E192" s="8"/>
@@ -32361,7 +32481,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="195" spans="1:128" s="50" customFormat="1">
+    <row r="195" spans="1:128" s="50" customFormat="1" ht="409.6">
       <c r="A195" s="48"/>
       <c r="B195" s="45"/>
       <c r="C195" s="49"/>
@@ -32432,7 +32552,7 @@
       <c r="CY195" s="52"/>
       <c r="CZ195" s="47"/>
     </row>
-    <row r="196" spans="1:128" s="9" customFormat="1">
+    <row r="196" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A196" s="43" t="s">
         <v>296</v>
       </c>
@@ -33116,7 +33236,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="200" spans="1:128" s="9" customFormat="1">
+    <row r="200" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A200" s="43" t="s">
         <v>297</v>
       </c>
@@ -33767,7 +33887,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="203" spans="1:128" s="50" customFormat="1">
+    <row r="203" spans="1:128" s="50" customFormat="1" ht="409.6">
       <c r="A203" s="44"/>
       <c r="B203" s="45"/>
       <c r="C203" s="49"/>
@@ -33837,9 +33957,9 @@
       <c r="CY203" s="47"/>
       <c r="CZ203" s="47"/>
     </row>
-    <row r="205" spans="1:128" s="9" customFormat="1">
+    <row r="205" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A205" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B205" s="8"/>
       <c r="E205" s="8"/>
@@ -34451,7 +34571,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="208" spans="1:128" s="5" customFormat="1">
+    <row r="208" spans="1:128" s="5" customFormat="1" ht="409.6">
       <c r="A208" s="34"/>
       <c r="B208" s="28"/>
       <c r="C208" s="26"/>
@@ -34524,7 +34644,7 @@
       <c r="CY208" s="24"/>
       <c r="CZ208" s="24"/>
     </row>
-    <row r="209" spans="1:128" s="9" customFormat="1">
+    <row r="209" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A209" s="7" t="s">
         <v>230</v>
       </c>
@@ -35142,7 +35262,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="212" spans="1:128" s="5" customFormat="1">
+    <row r="212" spans="1:128" s="5" customFormat="1" ht="409.6">
       <c r="A212" s="34"/>
       <c r="B212" s="28"/>
       <c r="C212" s="26"/>
@@ -35215,7 +35335,7 @@
       <c r="CY212" s="24"/>
       <c r="CZ212" s="24"/>
     </row>
-    <row r="213" spans="1:128" s="9" customFormat="1">
+    <row r="213" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A213" s="7" t="s">
         <v>229</v>
       </c>
@@ -35807,7 +35927,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="216" spans="1:128" s="5" customFormat="1">
+    <row r="216" spans="1:128" s="5" customFormat="1" ht="409.6">
       <c r="A216" s="34"/>
       <c r="B216" s="28"/>
       <c r="C216" s="26"/>
@@ -35880,7 +36000,7 @@
       <c r="CY216" s="24"/>
       <c r="CZ216" s="24"/>
     </row>
-    <row r="222" spans="1:128" s="9" customFormat="1">
+    <row r="222" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A222" s="62"/>
       <c r="B222" s="8"/>
       <c r="E222" s="8"/>
@@ -35950,7 +36070,7 @@
       <c r="CY222" s="8"/>
       <c r="CZ222" s="8"/>
     </row>
-    <row r="223" spans="1:128" s="11" customFormat="1">
+    <row r="223" spans="1:128" s="11" customFormat="1" ht="409.6">
       <c r="A223" s="17"/>
       <c r="B223" s="19"/>
       <c r="C223" s="15"/>
@@ -36080,7 +36200,7 @@
       <c r="DW223" s="6"/>
       <c r="DX223" s="6"/>
     </row>
-    <row r="224" spans="1:128" s="5" customFormat="1">
+    <row r="224" spans="1:128" s="5" customFormat="1" ht="409.6">
       <c r="A224" s="33"/>
       <c r="B224" s="27"/>
       <c r="C224" s="26"/>
@@ -36164,7 +36284,7 @@
       <c r="DU224" s="4"/>
       <c r="DV224" s="4"/>
     </row>
-    <row r="225" spans="1:128" s="32" customFormat="1">
+    <row r="225" spans="1:128" s="32" customFormat="1" ht="409.6">
       <c r="A225" s="29"/>
       <c r="B225" s="30"/>
       <c r="C225" s="29"/>
@@ -36268,7 +36388,7 @@
       <c r="CY225" s="31"/>
       <c r="CZ225" s="31"/>
     </row>
-    <row r="226" spans="1:128" s="9" customFormat="1">
+    <row r="226" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A226" s="43" t="s">
         <v>249</v>
       </c>
@@ -37072,10 +37192,10 @@
         <v>248</v>
       </c>
     </row>
-    <row r="234" spans="1:128">
+    <row r="234" spans="1:128" ht="409.6">
       <c r="A234" s="52"/>
     </row>
-    <row r="235" spans="1:128" s="9" customFormat="1">
+    <row r="235" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A235" s="43" t="s">
         <v>275</v>
       </c>
@@ -37811,7 +37931,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="239" spans="1:128" s="9" customFormat="1">
+    <row r="239" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A239" s="43" t="s">
         <v>276</v>
       </c>
@@ -38547,7 +38667,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="245" spans="1:128" s="9" customFormat="1">
+    <row r="245" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A245" s="63" t="s">
         <v>303</v>
       </c>

--- a/src/com/data/Test Cases.xlsx
+++ b/src/com/data/Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="17775" windowHeight="8835" tabRatio="152" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="23115" windowHeight="6735" tabRatio="152" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9603" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9607" uniqueCount="431">
   <si>
     <t>TCID</t>
   </si>
@@ -3597,9 +3597,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EH247"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X149" sqref="X149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
@@ -9657,7 +9657,7 @@
     <row r="36" spans="1:132">
       <c r="A36" s="52"/>
     </row>
-    <row r="37" spans="1:132" s="9" customFormat="1" ht="409.6">
+    <row r="37" spans="1:132" s="9" customFormat="1">
       <c r="A37" s="63" t="s">
         <v>350</v>
       </c>
@@ -10424,10 +10424,10 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:132" ht="409.6">
+    <row r="40" spans="1:132">
       <c r="A40" s="52"/>
     </row>
-    <row r="41" spans="1:132" s="9" customFormat="1" ht="409.6">
+    <row r="41" spans="1:132" s="9" customFormat="1">
       <c r="A41" s="63" t="s">
         <v>290</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="45" spans="1:132" s="9" customFormat="1" ht="409.6">
+    <row r="45" spans="1:132" s="9" customFormat="1">
       <c r="A45" s="43" t="s">
         <v>295</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="49" spans="1:128" s="9" customFormat="1">
       <c r="A49" s="43" t="s">
         <v>390</v>
       </c>
@@ -12602,7 +12602,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="53" spans="1:128" s="9" customFormat="1">
       <c r="A53" s="63" t="s">
         <v>391</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:128" s="5" customFormat="1" ht="409.6">
+    <row r="56" spans="1:128" s="5" customFormat="1">
       <c r="A56" s="12"/>
       <c r="B56" s="27"/>
       <c r="C56" s="26"/>
@@ -13337,7 +13337,7 @@
       <c r="CY56" s="4"/>
       <c r="CZ56" s="23"/>
     </row>
-    <row r="57" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="57" spans="1:128" s="9" customFormat="1">
       <c r="A57" s="63" t="s">
         <v>405</v>
       </c>
@@ -14028,7 +14028,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:128" s="5" customFormat="1" ht="409.6">
+    <row r="60" spans="1:128" s="5" customFormat="1">
       <c r="A60" s="48"/>
       <c r="B60" s="27"/>
       <c r="C60" s="26"/>
@@ -14100,7 +14100,7 @@
       <c r="CY60" s="4"/>
       <c r="CZ60" s="23"/>
     </row>
-    <row r="61" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="61" spans="1:128" s="9" customFormat="1">
       <c r="A61" s="43" t="s">
         <v>396</v>
       </c>
@@ -14798,7 +14798,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="65" spans="1:128" s="9" customFormat="1">
       <c r="A65" s="63" t="s">
         <v>395</v>
       </c>
@@ -15464,7 +15464,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:128" s="25" customFormat="1" ht="409.6">
+    <row r="69" spans="1:128" s="25" customFormat="1">
       <c r="A69" s="63" t="s">
         <v>392</v>
       </c>
@@ -16182,7 +16182,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:128" s="5" customFormat="1" ht="409.6">
+    <row r="72" spans="1:128" s="5" customFormat="1">
       <c r="A72" s="48"/>
       <c r="B72" s="27"/>
       <c r="C72" s="26"/>
@@ -16254,7 +16254,7 @@
       <c r="CY72" s="4"/>
       <c r="CZ72" s="23"/>
     </row>
-    <row r="73" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="73" spans="1:128" s="9" customFormat="1">
       <c r="A73" s="63" t="s">
         <v>364</v>
       </c>
@@ -16813,7 +16813,7 @@
       <c r="CY75" s="4"/>
       <c r="CZ75" s="23"/>
     </row>
-    <row r="77" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="77" spans="1:128" s="9" customFormat="1">
       <c r="A77" s="63" t="s">
         <v>365</v>
       </c>
@@ -17372,10 +17372,10 @@
       <c r="CY79" s="4"/>
       <c r="CZ79" s="23"/>
     </row>
-    <row r="80" spans="1:128" ht="409.6">
+    <row r="80" spans="1:128">
       <c r="D80" s="12"/>
     </row>
-    <row r="81" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="81" spans="1:128" s="9" customFormat="1">
       <c r="A81" s="63" t="s">
         <v>369</v>
       </c>
@@ -17934,7 +17934,7 @@
       <c r="CY83" s="4"/>
       <c r="CZ83" s="23"/>
     </row>
-    <row r="85" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="85" spans="1:128" s="9" customFormat="1">
       <c r="A85" s="63" t="s">
         <v>370</v>
       </c>
@@ -18496,10 +18496,10 @@
       <c r="CY87" s="4"/>
       <c r="CZ87" s="23"/>
     </row>
-    <row r="88" spans="1:128" ht="409.6">
+    <row r="88" spans="1:128">
       <c r="D88" s="12"/>
     </row>
-    <row r="89" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="89" spans="1:128" s="9" customFormat="1">
       <c r="A89" s="63" t="s">
         <v>367</v>
       </c>
@@ -19283,7 +19283,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="93" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="93" spans="1:128" s="9" customFormat="1">
       <c r="A93" s="63" t="s">
         <v>368</v>
       </c>
@@ -20064,7 +20064,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="96" spans="1:128" s="32" customFormat="1" ht="409.6">
+    <row r="96" spans="1:128" s="32" customFormat="1">
       <c r="A96" s="29"/>
       <c r="B96" s="30"/>
       <c r="C96" s="29"/>
@@ -20168,10 +20168,10 @@
       <c r="CY96" s="31"/>
       <c r="CZ96" s="31"/>
     </row>
-    <row r="97" spans="1:128" ht="409.6">
+    <row r="97" spans="1:128">
       <c r="A97" s="52"/>
     </row>
-    <row r="98" spans="1:128" s="32" customFormat="1" ht="409.6">
+    <row r="98" spans="1:128" s="32" customFormat="1">
       <c r="A98" s="29"/>
       <c r="B98" s="30"/>
       <c r="C98" s="29"/>
@@ -20275,7 +20275,7 @@
       <c r="CY98" s="31"/>
       <c r="CZ98" s="31"/>
     </row>
-    <row r="99" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="99" spans="1:128" s="9" customFormat="1">
       <c r="A99" s="62" t="s">
         <v>298</v>
       </c>
@@ -20864,7 +20864,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="103" spans="1:128" s="9" customFormat="1">
       <c r="A103" s="62" t="s">
         <v>299</v>
       </c>
@@ -21519,7 +21519,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="107" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="107" spans="1:128" s="9" customFormat="1">
       <c r="A107" s="53" t="s">
         <v>300</v>
       </c>
@@ -22125,7 +22125,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="111" spans="1:128" s="9" customFormat="1">
       <c r="A111" s="62" t="s">
         <v>289</v>
       </c>
@@ -22905,7 +22905,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="115" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="115" spans="1:128" s="9" customFormat="1">
       <c r="A115" s="62" t="s">
         <v>287</v>
       </c>
@@ -23685,7 +23685,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="119" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="119" spans="1:128" s="9" customFormat="1">
       <c r="A119" s="62" t="s">
         <v>351</v>
       </c>
@@ -24465,7 +24465,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="123" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="123" spans="1:128" s="9" customFormat="1">
       <c r="A123" s="62" t="s">
         <v>301</v>
       </c>
@@ -25198,7 +25198,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="127" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="127" spans="1:128" s="9" customFormat="1">
       <c r="A127" s="7" t="s">
         <v>398</v>
       </c>
@@ -25846,7 +25846,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="131" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="131" spans="1:128" s="9" customFormat="1">
       <c r="A131" s="7" t="s">
         <v>399</v>
       </c>
@@ -26473,7 +26473,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="135" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="135" spans="1:128" s="9" customFormat="1">
       <c r="A135" s="7" t="s">
         <v>400</v>
       </c>
@@ -27119,7 +27119,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="139" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="139" spans="1:128" s="9" customFormat="1">
       <c r="A139" s="7" t="s">
         <v>401</v>
       </c>
@@ -27745,7 +27745,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="143" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="143" spans="1:128" s="9" customFormat="1">
       <c r="A143" s="7" t="s">
         <v>402</v>
       </c>
@@ -28203,7 +28203,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="145" spans="1:128" s="5" customFormat="1" ht="51">
+    <row r="145" spans="1:129" s="5" customFormat="1" ht="51">
       <c r="A145" s="34" t="s">
         <v>3</v>
       </c>
@@ -28391,7 +28391,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="147" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="147" spans="1:129" s="9" customFormat="1">
       <c r="A147" s="7" t="s">
         <v>403</v>
       </c>
@@ -28463,7 +28463,7 @@
       <c r="CY147" s="8"/>
       <c r="CZ147" s="8"/>
     </row>
-    <row r="148" spans="1:128" s="11" customFormat="1" ht="38.25">
+    <row r="148" spans="1:129" s="11" customFormat="1" ht="38.25">
       <c r="A148" s="17" t="s">
         <v>2</v>
       </c>
@@ -28507,7 +28507,7 @@
         <v>13</v>
       </c>
       <c r="O148" s="15" t="s">
-        <v>12</v>
+        <v>324</v>
       </c>
       <c r="P148" s="15" t="s">
         <v>41</v>
@@ -28848,8 +28848,11 @@
       <c r="DX148" s="6" t="s">
         <v>259</v>
       </c>
+      <c r="DY148" s="15" t="s">
+        <v>430</v>
+      </c>
     </row>
-    <row r="149" spans="1:128" s="5" customFormat="1" ht="51">
+    <row r="149" spans="1:129" s="5" customFormat="1" ht="51">
       <c r="A149" s="34" t="s">
         <v>3</v>
       </c>
@@ -28877,6 +28880,9 @@
       <c r="I149" s="5" t="s">
         <v>311</v>
       </c>
+      <c r="O149" s="5" t="s">
+        <v>323</v>
+      </c>
       <c r="R149" s="5" t="s">
         <v>394</v>
       </c>
@@ -28889,7 +28895,9 @@
       <c r="W149" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="X149" s="14"/>
+      <c r="X149" s="14" t="s">
+        <v>317</v>
+      </c>
       <c r="Y149" s="5" t="s">
         <v>14</v>
       </c>
@@ -29036,8 +29044,11 @@
       <c r="CZ149" s="24" t="s">
         <v>53</v>
       </c>
+      <c r="DY149" s="26" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="151" spans="1:128" s="32" customFormat="1" ht="409.6">
+    <row r="151" spans="1:129" s="32" customFormat="1">
       <c r="A151" s="29"/>
       <c r="B151" s="30"/>
       <c r="C151" s="29"/>
@@ -29141,10 +29152,10 @@
       <c r="CY151" s="31"/>
       <c r="CZ151" s="31"/>
     </row>
-    <row r="152" spans="1:128" ht="409.6">
+    <row r="152" spans="1:129">
       <c r="A152" s="52"/>
     </row>
-    <row r="153" spans="1:128" s="32" customFormat="1" ht="409.6">
+    <row r="153" spans="1:129" s="32" customFormat="1">
       <c r="A153" s="29"/>
       <c r="B153" s="30"/>
       <c r="C153" s="29"/>
@@ -29248,7 +29259,7 @@
       <c r="CY153" s="31"/>
       <c r="CZ153" s="31"/>
     </row>
-    <row r="154" spans="1:128" s="25" customFormat="1" ht="409.6">
+    <row r="154" spans="1:129" s="25" customFormat="1">
       <c r="A154" s="7" t="s">
         <v>214</v>
       </c>
@@ -29264,7 +29275,7 @@
       <c r="AY154" s="38"/>
       <c r="AZ154" s="38"/>
     </row>
-    <row r="155" spans="1:128" s="15" customFormat="1" ht="27.75" customHeight="1">
+    <row r="155" spans="1:129" s="15" customFormat="1" ht="27.75" customHeight="1">
       <c r="A155" s="17" t="s">
         <v>2</v>
       </c>
@@ -29431,7 +29442,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="156" spans="1:128" s="5" customFormat="1" ht="38.25">
+    <row r="156" spans="1:129" s="5" customFormat="1" ht="38.25">
       <c r="A156" s="33" t="s">
         <v>3</v>
       </c>
@@ -29508,7 +29519,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="157" spans="1:128" s="5" customFormat="1" ht="38.25">
+    <row r="157" spans="1:129" s="5" customFormat="1" ht="38.25">
       <c r="A157" s="33" t="s">
         <v>3</v>
       </c>
@@ -29585,7 +29596,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="158" spans="1:128" s="5" customFormat="1" ht="38.25">
+    <row r="158" spans="1:129" s="5" customFormat="1" ht="38.25">
       <c r="A158" s="33" t="s">
         <v>3</v>
       </c>
@@ -29662,7 +29673,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="159" spans="1:128" s="5" customFormat="1" ht="38.25">
+    <row r="159" spans="1:129" s="5" customFormat="1" ht="38.25">
       <c r="A159" s="33" t="s">
         <v>3</v>
       </c>
@@ -29736,7 +29747,7 @@
       <c r="AX159" s="14"/>
       <c r="AZ159" s="14"/>
     </row>
-    <row r="160" spans="1:128" s="5" customFormat="1" ht="38.25">
+    <row r="160" spans="1:129" s="5" customFormat="1" ht="38.25">
       <c r="A160" s="33" t="s">
         <v>3</v>
       </c>

--- a/src/com/data/Test Cases.xlsx
+++ b/src/com/data/Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="23115" windowHeight="6735" tabRatio="152" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="21225" windowHeight="4380" tabRatio="152" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9607" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9607" uniqueCount="433">
   <si>
     <t>TCID</t>
   </si>
@@ -1823,6 +1823,12 @@
   </si>
   <si>
     <t>filing_review_type_8085</t>
+  </si>
+  <si>
+    <t>NYCECC :: Tabular Analysis :: Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antenna ::  :: i ::  ::  :: 1000 ::  ::  ::  ::  ::  :: due :: </t>
   </si>
 </sst>
 </file>
@@ -3597,9 +3603,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EH247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X149" sqref="X149"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
@@ -4768,7 +4774,7 @@
         <v>376</v>
       </c>
       <c r="X8" s="14" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="Y8" s="5" t="s">
         <v>14</v>
@@ -16712,7 +16718,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="75" spans="1:128" s="5" customFormat="1" ht="38.25">
+    <row r="75" spans="1:128" s="5" customFormat="1" ht="51">
       <c r="A75" s="33" t="s">
         <v>3</v>
       </c>
@@ -16720,7 +16726,7 @@
         <v>272</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>274</v>
@@ -17934,7 +17940,7 @@
       <c r="CY83" s="4"/>
       <c r="CZ83" s="23"/>
     </row>
-    <row r="85" spans="1:128" s="9" customFormat="1">
+    <row r="85" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A85" s="63" t="s">
         <v>370</v>
       </c>
@@ -18496,10 +18502,10 @@
       <c r="CY87" s="4"/>
       <c r="CZ87" s="23"/>
     </row>
-    <row r="88" spans="1:128">
+    <row r="88" spans="1:128" ht="409.6">
       <c r="D88" s="12"/>
     </row>
-    <row r="89" spans="1:128" s="9" customFormat="1">
+    <row r="89" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A89" s="63" t="s">
         <v>367</v>
       </c>
@@ -19283,7 +19289,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="93" spans="1:128" s="9" customFormat="1">
+    <row r="93" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A93" s="63" t="s">
         <v>368</v>
       </c>
@@ -20064,7 +20070,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="96" spans="1:128" s="32" customFormat="1">
+    <row r="96" spans="1:128" s="32" customFormat="1" ht="409.6">
       <c r="A96" s="29"/>
       <c r="B96" s="30"/>
       <c r="C96" s="29"/>
@@ -20168,10 +20174,10 @@
       <c r="CY96" s="31"/>
       <c r="CZ96" s="31"/>
     </row>
-    <row r="97" spans="1:128">
+    <row r="97" spans="1:128" ht="409.6">
       <c r="A97" s="52"/>
     </row>
-    <row r="98" spans="1:128" s="32" customFormat="1">
+    <row r="98" spans="1:128" s="32" customFormat="1" ht="409.6">
       <c r="A98" s="29"/>
       <c r="B98" s="30"/>
       <c r="C98" s="29"/>
@@ -20275,7 +20281,7 @@
       <c r="CY98" s="31"/>
       <c r="CZ98" s="31"/>
     </row>
-    <row r="99" spans="1:128" s="9" customFormat="1">
+    <row r="99" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A99" s="62" t="s">
         <v>298</v>
       </c>
@@ -20864,7 +20870,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:128" s="9" customFormat="1">
+    <row r="103" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A103" s="62" t="s">
         <v>299</v>
       </c>
@@ -21519,7 +21525,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="107" spans="1:128" s="9" customFormat="1">
+    <row r="107" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A107" s="53" t="s">
         <v>300</v>
       </c>
@@ -22125,7 +22131,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="1:128" s="9" customFormat="1">
+    <row r="111" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A111" s="62" t="s">
         <v>289</v>
       </c>
@@ -22905,7 +22911,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="115" spans="1:128" s="9" customFormat="1">
+    <row r="115" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A115" s="62" t="s">
         <v>287</v>
       </c>
@@ -23685,7 +23691,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="119" spans="1:128" s="9" customFormat="1">
+    <row r="119" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A119" s="62" t="s">
         <v>351</v>
       </c>
@@ -24465,7 +24471,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="123" spans="1:128" s="9" customFormat="1">
+    <row r="123" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A123" s="62" t="s">
         <v>301</v>
       </c>
@@ -25198,7 +25204,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="127" spans="1:128" s="9" customFormat="1">
+    <row r="127" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A127" s="7" t="s">
         <v>398</v>
       </c>
@@ -25846,7 +25852,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="131" spans="1:128" s="9" customFormat="1">
+    <row r="131" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A131" s="7" t="s">
         <v>399</v>
       </c>
@@ -26473,7 +26479,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="135" spans="1:128" s="9" customFormat="1">
+    <row r="135" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A135" s="7" t="s">
         <v>400</v>
       </c>
@@ -27119,7 +27125,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="139" spans="1:128" s="9" customFormat="1">
+    <row r="139" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A139" s="7" t="s">
         <v>401</v>
       </c>
@@ -27745,7 +27751,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="143" spans="1:128" s="9" customFormat="1">
+    <row r="143" spans="1:128" s="9" customFormat="1" ht="409.6">
       <c r="A143" s="7" t="s">
         <v>402</v>
       </c>
@@ -28391,7 +28397,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="147" spans="1:129" s="9" customFormat="1">
+    <row r="147" spans="1:129" s="9" customFormat="1" ht="409.6">
       <c r="A147" s="7" t="s">
         <v>403</v>
       </c>
@@ -28896,7 +28902,7 @@
         <v>3</v>
       </c>
       <c r="X149" s="14" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
       <c r="Y149" s="5" t="s">
         <v>14</v>
@@ -29048,7 +29054,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="151" spans="1:129" s="32" customFormat="1">
+    <row r="151" spans="1:129" s="32" customFormat="1" ht="409.6">
       <c r="A151" s="29"/>
       <c r="B151" s="30"/>
       <c r="C151" s="29"/>
@@ -29152,10 +29158,10 @@
       <c r="CY151" s="31"/>
       <c r="CZ151" s="31"/>
     </row>
-    <row r="152" spans="1:129">
+    <row r="152" spans="1:129" ht="409.6">
       <c r="A152" s="52"/>
     </row>
-    <row r="153" spans="1:129" s="32" customFormat="1">
+    <row r="153" spans="1:129" s="32" customFormat="1" ht="409.6">
       <c r="A153" s="29"/>
       <c r="B153" s="30"/>
       <c r="C153" s="29"/>
@@ -29259,7 +29265,7 @@
       <c r="CY153" s="31"/>
       <c r="CZ153" s="31"/>
     </row>
-    <row r="154" spans="1:129" s="25" customFormat="1">
+    <row r="154" spans="1:129" s="25" customFormat="1" ht="409.6">
       <c r="A154" s="7" t="s">
         <v>214</v>
       </c>

--- a/src/com/data/Test Cases.xlsx
+++ b/src/com/data/Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="21225" windowHeight="4380" tabRatio="152" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1185" windowWidth="21645" windowHeight="10605" tabRatio="152" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9607" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9607" uniqueCount="435">
   <si>
     <t>TCID</t>
   </si>
@@ -1830,12 +1830,18 @@
   <si>
     <t xml:space="preserve">Antenna ::  :: i ::  ::  :: 1000 ::  ::  ::  ::  ::  :: due :: </t>
   </si>
+  <si>
+    <t>Y :: APPLEROME18@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>Yv</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2035,6 +2041,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2442,7 +2456,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="128">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2571,8 +2585,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2754,8 +2769,11 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="128" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="128">
+  <cellStyles count="129">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2873,6 +2891,7 @@
     <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -3603,9 +3622,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EH247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A231" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="BF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BI247" sqref="BI247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
@@ -4873,9 +4892,9 @@
       <c r="BG8" s="14"/>
       <c r="BH8" s="14"/>
       <c r="BI8" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ8" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="BJ8" s="65" t="s">
         <v>91</v>
       </c>
       <c r="BK8" s="14" t="s">
@@ -6656,7 +6675,7 @@
       <c r="BG19" s="14"/>
       <c r="BH19" s="14"/>
       <c r="BI19" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ19" s="14" t="s">
         <v>91</v>
@@ -7367,7 +7386,7 @@
       <c r="BG23" s="14"/>
       <c r="BH23" s="14"/>
       <c r="BI23" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ23" s="14" t="s">
         <v>91</v>
@@ -8136,7 +8155,7 @@
       <c r="BG27" s="14"/>
       <c r="BH27" s="14"/>
       <c r="BI27" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ27" s="14" t="s">
         <v>91</v>
@@ -8786,7 +8805,7 @@
       <c r="BG31" s="14"/>
       <c r="BH31" s="14"/>
       <c r="BI31" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ31" s="14" t="s">
         <v>91</v>
@@ -9484,7 +9503,7 @@
       <c r="BG35" s="14"/>
       <c r="BH35" s="14"/>
       <c r="BI35" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ35" s="14" t="s">
         <v>91</v>
@@ -10251,7 +10270,7 @@
       <c r="BG39" s="14"/>
       <c r="BH39" s="14"/>
       <c r="BI39" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ39" s="14" t="s">
         <v>91</v>
@@ -11016,7 +11035,7 @@
       <c r="BG43" s="14"/>
       <c r="BH43" s="14"/>
       <c r="BI43" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ43" s="14" t="s">
         <v>91</v>
@@ -11785,7 +11804,7 @@
       <c r="BG47" s="14"/>
       <c r="BH47" s="14"/>
       <c r="BI47" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ47" s="14" t="s">
         <v>91</v>
@@ -12505,7 +12524,7 @@
       <c r="BG51" s="14"/>
       <c r="BH51" s="14"/>
       <c r="BI51" s="14" t="s">
-        <v>3</v>
+        <v>434</v>
       </c>
       <c r="BJ51" s="14" t="s">
         <v>91</v>
@@ -13209,7 +13228,7 @@
         <v>314</v>
       </c>
       <c r="BI55" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ55" s="14" t="s">
         <v>91</v>
@@ -13926,7 +13945,7 @@
       <c r="BG59" s="14"/>
       <c r="BH59" s="14"/>
       <c r="BI59" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ59" s="14" t="s">
         <v>91</v>
@@ -14700,7 +14719,7 @@
       <c r="BG63" s="14"/>
       <c r="BH63" s="14"/>
       <c r="BI63" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ63" s="14" t="s">
         <v>91</v>
@@ -15402,7 +15421,7 @@
         <v>314</v>
       </c>
       <c r="BI67" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ67" s="14" t="s">
         <v>91</v>
@@ -16080,7 +16099,7 @@
       <c r="BG71" s="14"/>
       <c r="BH71" s="14"/>
       <c r="BI71" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ71" s="14" t="s">
         <v>91</v>
@@ -17940,7 +17959,7 @@
       <c r="CY83" s="4"/>
       <c r="CZ83" s="23"/>
     </row>
-    <row r="85" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="85" spans="1:128" s="9" customFormat="1">
       <c r="A85" s="63" t="s">
         <v>370</v>
       </c>
@@ -18502,10 +18521,10 @@
       <c r="CY87" s="4"/>
       <c r="CZ87" s="23"/>
     </row>
-    <row r="88" spans="1:128" ht="409.6">
+    <row r="88" spans="1:128">
       <c r="D88" s="12"/>
     </row>
-    <row r="89" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="89" spans="1:128" s="9" customFormat="1">
       <c r="A89" s="63" t="s">
         <v>367</v>
       </c>
@@ -19113,7 +19132,7 @@
       <c r="BG91" s="14"/>
       <c r="BH91" s="14"/>
       <c r="BI91" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ91" s="14" t="s">
         <v>91</v>
@@ -19289,7 +19308,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="93" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="93" spans="1:128" s="9" customFormat="1">
       <c r="A93" s="63" t="s">
         <v>368</v>
       </c>
@@ -19897,7 +19916,7 @@
       <c r="BG95" s="14"/>
       <c r="BH95" s="14"/>
       <c r="BI95" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ95" s="14" t="s">
         <v>91</v>
@@ -20070,7 +20089,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="96" spans="1:128" s="32" customFormat="1" ht="409.6">
+    <row r="96" spans="1:128" s="32" customFormat="1">
       <c r="A96" s="29"/>
       <c r="B96" s="30"/>
       <c r="C96" s="29"/>
@@ -20174,10 +20193,10 @@
       <c r="CY96" s="31"/>
       <c r="CZ96" s="31"/>
     </row>
-    <row r="97" spans="1:128" ht="409.6">
+    <row r="97" spans="1:128">
       <c r="A97" s="52"/>
     </row>
-    <row r="98" spans="1:128" s="32" customFormat="1" ht="409.6">
+    <row r="98" spans="1:128" s="32" customFormat="1">
       <c r="A98" s="29"/>
       <c r="B98" s="30"/>
       <c r="C98" s="29"/>
@@ -20281,7 +20300,7 @@
       <c r="CY98" s="31"/>
       <c r="CZ98" s="31"/>
     </row>
-    <row r="99" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="99" spans="1:128" s="9" customFormat="1">
       <c r="A99" s="62" t="s">
         <v>298</v>
       </c>
@@ -20772,7 +20791,7 @@
       <c r="BG101" s="14"/>
       <c r="BH101" s="14"/>
       <c r="BI101" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ101" s="14" t="s">
         <v>91</v>
@@ -20870,7 +20889,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="103" spans="1:128" s="9" customFormat="1">
       <c r="A103" s="62" t="s">
         <v>299</v>
       </c>
@@ -21414,7 +21433,7 @@
       <c r="BG105" s="14"/>
       <c r="BH105" s="14"/>
       <c r="BI105" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ105" s="14" t="s">
         <v>91</v>
@@ -21525,7 +21544,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="107" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="107" spans="1:128" s="9" customFormat="1">
       <c r="A107" s="53" t="s">
         <v>300</v>
       </c>
@@ -22016,7 +22035,7 @@
       <c r="BG109" s="14"/>
       <c r="BH109" s="14"/>
       <c r="BI109" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ109" s="14" t="s">
         <v>91</v>
@@ -22131,7 +22150,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="111" spans="1:128" s="9" customFormat="1">
       <c r="A111" s="62" t="s">
         <v>289</v>
       </c>
@@ -22735,7 +22754,7 @@
       <c r="BG113" s="14"/>
       <c r="BH113" s="14"/>
       <c r="BI113" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ113" s="14" t="s">
         <v>91</v>
@@ -22911,7 +22930,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="115" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="115" spans="1:128" s="9" customFormat="1">
       <c r="A115" s="62" t="s">
         <v>287</v>
       </c>
@@ -23515,7 +23534,7 @@
       <c r="BG117" s="14"/>
       <c r="BH117" s="14"/>
       <c r="BI117" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ117" s="14" t="s">
         <v>91</v>
@@ -23691,7 +23710,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="119" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="119" spans="1:128" s="9" customFormat="1">
       <c r="A119" s="62" t="s">
         <v>351</v>
       </c>
@@ -24295,7 +24314,7 @@
       <c r="BG121" s="14"/>
       <c r="BH121" s="14"/>
       <c r="BI121" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ121" s="14" t="s">
         <v>91</v>
@@ -24471,7 +24490,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="123" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="123" spans="1:128" s="9" customFormat="1">
       <c r="A123" s="62" t="s">
         <v>301</v>
       </c>
@@ -25030,7 +25049,7 @@
       <c r="BG125" s="14"/>
       <c r="BH125" s="14"/>
       <c r="BI125" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ125" s="14" t="s">
         <v>91</v>
@@ -25204,7 +25223,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="127" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="127" spans="1:128" s="9" customFormat="1">
       <c r="A127" s="7" t="s">
         <v>398</v>
       </c>
@@ -25749,7 +25768,7 @@
         <v>314</v>
       </c>
       <c r="BI129" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ129" s="14" t="s">
         <v>91</v>
@@ -25852,7 +25871,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="131" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="131" spans="1:128" s="9" customFormat="1">
       <c r="A131" s="7" t="s">
         <v>399</v>
       </c>
@@ -26400,7 +26419,7 @@
         <v>314</v>
       </c>
       <c r="BI133" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ133" s="14" t="s">
         <v>91</v>
@@ -26479,7 +26498,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="135" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="135" spans="1:128" s="9" customFormat="1">
       <c r="A135" s="7" t="s">
         <v>400</v>
       </c>
@@ -27023,7 +27042,7 @@
       <c r="BG137" s="14"/>
       <c r="BH137" s="14"/>
       <c r="BI137" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ137" s="14" t="s">
         <v>91</v>
@@ -27125,7 +27144,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="139" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="139" spans="1:128" s="9" customFormat="1">
       <c r="A139" s="7" t="s">
         <v>401</v>
       </c>
@@ -27673,7 +27692,7 @@
         <v>314</v>
       </c>
       <c r="BI141" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ141" s="14" t="s">
         <v>91</v>
@@ -27751,7 +27770,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="143" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="143" spans="1:128" s="9" customFormat="1">
       <c r="A143" s="7" t="s">
         <v>402</v>
       </c>
@@ -28295,7 +28314,7 @@
       <c r="BG145" s="14"/>
       <c r="BH145" s="14"/>
       <c r="BI145" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ145" s="14" t="s">
         <v>91</v>
@@ -28397,7 +28416,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="147" spans="1:129" s="9" customFormat="1" ht="409.6">
+    <row r="147" spans="1:129" s="9" customFormat="1">
       <c r="A147" s="7" t="s">
         <v>403</v>
       </c>
@@ -28949,7 +28968,7 @@
       <c r="BG149" s="14"/>
       <c r="BH149" s="14"/>
       <c r="BI149" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ149" s="14" t="s">
         <v>91</v>
@@ -29054,7 +29073,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="151" spans="1:129" s="32" customFormat="1" ht="409.6">
+    <row r="151" spans="1:129" s="32" customFormat="1">
       <c r="A151" s="29"/>
       <c r="B151" s="30"/>
       <c r="C151" s="29"/>
@@ -29158,10 +29177,10 @@
       <c r="CY151" s="31"/>
       <c r="CZ151" s="31"/>
     </row>
-    <row r="152" spans="1:129" ht="409.6">
+    <row r="152" spans="1:129">
       <c r="A152" s="52"/>
     </row>
-    <row r="153" spans="1:129" s="32" customFormat="1" ht="409.6">
+    <row r="153" spans="1:129" s="32" customFormat="1">
       <c r="A153" s="29"/>
       <c r="B153" s="30"/>
       <c r="C153" s="29"/>
@@ -29265,7 +29284,7 @@
       <c r="CY153" s="31"/>
       <c r="CZ153" s="31"/>
     </row>
-    <row r="154" spans="1:129" s="25" customFormat="1" ht="409.6">
+    <row r="154" spans="1:129" s="25" customFormat="1">
       <c r="A154" s="7" t="s">
         <v>214</v>
       </c>
@@ -30215,7 +30234,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="166" spans="1:55" s="35" customFormat="1" ht="409.6">
+    <row r="166" spans="1:55" s="35" customFormat="1">
       <c r="B166" s="36"/>
       <c r="E166" s="37"/>
       <c r="M166" s="37"/>
@@ -30239,7 +30258,7 @@
       <c r="AV166" s="37"/>
       <c r="BA166" s="37"/>
     </row>
-    <row r="167" spans="1:55" s="25" customFormat="1" ht="409.6">
+    <row r="167" spans="1:55" s="25" customFormat="1">
       <c r="A167" s="7" t="s">
         <v>215</v>
       </c>
@@ -31189,7 +31208,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="179" spans="1:128" s="35" customFormat="1" ht="409.6">
+    <row r="179" spans="1:128" s="35" customFormat="1">
       <c r="B179" s="36"/>
       <c r="E179" s="37"/>
       <c r="M179" s="37"/>
@@ -31213,7 +31232,7 @@
       <c r="AV179" s="37"/>
       <c r="BA179" s="37"/>
     </row>
-    <row r="180" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="180" spans="1:128" s="9" customFormat="1">
       <c r="A180" s="43" t="s">
         <v>222</v>
       </c>
@@ -31623,7 +31642,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="182" spans="1:128" s="5" customFormat="1" ht="25.5">
+    <row r="182" spans="1:128" s="5" customFormat="1" ht="51">
       <c r="A182" s="33" t="s">
         <v>3</v>
       </c>
@@ -31670,7 +31689,7 @@
       <c r="BG182" s="14"/>
       <c r="BH182" s="14"/>
       <c r="BI182" s="5" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ182" s="14" t="s">
         <v>91</v>
@@ -31742,7 +31761,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="183" spans="1:128" s="5" customFormat="1" ht="409.6">
+    <row r="183" spans="1:128" s="5" customFormat="1">
       <c r="A183" s="33"/>
       <c r="B183" s="42"/>
       <c r="C183" s="26"/>
@@ -31805,12 +31824,12 @@
       <c r="CZ183" s="14"/>
       <c r="DF183" s="14"/>
     </row>
-    <row r="191" spans="1:128" ht="409.6">
+    <row r="191" spans="1:128">
       <c r="A191" s="52" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="192" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="192" spans="1:128" s="9" customFormat="1">
       <c r="A192" s="43" t="s">
         <v>392</v>
       </c>
@@ -32390,7 +32409,7 @@
       <c r="BG194" s="14"/>
       <c r="BH194" s="14"/>
       <c r="BI194" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ194" s="14" t="s">
         <v>91</v>
@@ -32498,7 +32517,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="195" spans="1:128" s="50" customFormat="1" ht="409.6">
+    <row r="195" spans="1:128" s="50" customFormat="1">
       <c r="A195" s="48"/>
       <c r="B195" s="45"/>
       <c r="C195" s="49"/>
@@ -32569,7 +32588,7 @@
       <c r="CY195" s="52"/>
       <c r="CZ195" s="47"/>
     </row>
-    <row r="196" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="196" spans="1:128" s="9" customFormat="1">
       <c r="A196" s="43" t="s">
         <v>296</v>
       </c>
@@ -33152,7 +33171,7 @@
       <c r="BG198" s="14"/>
       <c r="BH198" s="14"/>
       <c r="BI198" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ198" s="14" t="s">
         <v>91</v>
@@ -33253,7 +33272,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="200" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="200" spans="1:128" s="9" customFormat="1">
       <c r="A200" s="43" t="s">
         <v>297</v>
       </c>
@@ -33840,7 +33859,7 @@
         <v>314</v>
       </c>
       <c r="BI202" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ202" s="14" t="s">
         <v>91</v>
@@ -33904,7 +33923,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="203" spans="1:128" s="50" customFormat="1" ht="409.6">
+    <row r="203" spans="1:128" s="50" customFormat="1">
       <c r="A203" s="44"/>
       <c r="B203" s="45"/>
       <c r="C203" s="49"/>
@@ -33974,7 +33993,7 @@
       <c r="CY203" s="47"/>
       <c r="CZ203" s="47"/>
     </row>
-    <row r="205" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="205" spans="1:128" s="9" customFormat="1">
       <c r="A205" s="7" t="s">
         <v>403</v>
       </c>
@@ -34488,7 +34507,7 @@
       <c r="BG207" s="14"/>
       <c r="BH207" s="14"/>
       <c r="BI207" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ207" s="14" t="s">
         <v>91</v>
@@ -34588,7 +34607,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="208" spans="1:128" s="5" customFormat="1" ht="409.6">
+    <row r="208" spans="1:128" s="5" customFormat="1">
       <c r="A208" s="34"/>
       <c r="B208" s="28"/>
       <c r="C208" s="26"/>
@@ -34661,7 +34680,7 @@
       <c r="CY208" s="24"/>
       <c r="CZ208" s="24"/>
     </row>
-    <row r="209" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="209" spans="1:128" s="9" customFormat="1">
       <c r="A209" s="7" t="s">
         <v>230</v>
       </c>
@@ -35176,7 +35195,7 @@
         <v>314</v>
       </c>
       <c r="BI211" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ211" s="14" t="s">
         <v>91</v>
@@ -35279,7 +35298,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="212" spans="1:128" s="5" customFormat="1" ht="409.6">
+    <row r="212" spans="1:128" s="5" customFormat="1">
       <c r="A212" s="34"/>
       <c r="B212" s="28"/>
       <c r="C212" s="26"/>
@@ -35352,7 +35371,7 @@
       <c r="CY212" s="24"/>
       <c r="CZ212" s="24"/>
     </row>
-    <row r="213" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="213" spans="1:128" s="9" customFormat="1">
       <c r="A213" s="7" t="s">
         <v>229</v>
       </c>
@@ -35867,7 +35886,7 @@
         <v>314</v>
       </c>
       <c r="BI215" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ215" s="14" t="s">
         <v>91</v>
@@ -35944,7 +35963,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="216" spans="1:128" s="5" customFormat="1" ht="409.6">
+    <row r="216" spans="1:128" s="5" customFormat="1">
       <c r="A216" s="34"/>
       <c r="B216" s="28"/>
       <c r="C216" s="26"/>
@@ -36017,7 +36036,7 @@
       <c r="CY216" s="24"/>
       <c r="CZ216" s="24"/>
     </row>
-    <row r="222" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="222" spans="1:128" s="9" customFormat="1">
       <c r="A222" s="62"/>
       <c r="B222" s="8"/>
       <c r="E222" s="8"/>
@@ -36087,7 +36106,7 @@
       <c r="CY222" s="8"/>
       <c r="CZ222" s="8"/>
     </row>
-    <row r="223" spans="1:128" s="11" customFormat="1" ht="409.6">
+    <row r="223" spans="1:128" s="11" customFormat="1">
       <c r="A223" s="17"/>
       <c r="B223" s="19"/>
       <c r="C223" s="15"/>
@@ -36217,7 +36236,7 @@
       <c r="DW223" s="6"/>
       <c r="DX223" s="6"/>
     </row>
-    <row r="224" spans="1:128" s="5" customFormat="1" ht="409.6">
+    <row r="224" spans="1:128" s="5" customFormat="1">
       <c r="A224" s="33"/>
       <c r="B224" s="27"/>
       <c r="C224" s="26"/>
@@ -36301,7 +36320,7 @@
       <c r="DU224" s="4"/>
       <c r="DV224" s="4"/>
     </row>
-    <row r="225" spans="1:128" s="32" customFormat="1" ht="409.6">
+    <row r="225" spans="1:128" s="32" customFormat="1">
       <c r="A225" s="29"/>
       <c r="B225" s="30"/>
       <c r="C225" s="29"/>
@@ -36405,7 +36424,7 @@
       <c r="CY225" s="31"/>
       <c r="CZ225" s="31"/>
     </row>
-    <row r="226" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="226" spans="1:128" s="9" customFormat="1">
       <c r="A226" s="43" t="s">
         <v>249</v>
       </c>
@@ -36863,7 +36882,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="228" spans="1:128" s="5" customFormat="1" ht="38.25">
+    <row r="228" spans="1:128" s="5" customFormat="1" ht="51">
       <c r="A228" s="33" t="s">
         <v>3</v>
       </c>
@@ -37033,7 +37052,7 @@
       <c r="BG228" s="14"/>
       <c r="BH228" s="14"/>
       <c r="BI228" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ228" s="14" t="s">
         <v>91</v>
@@ -37209,10 +37228,10 @@
         <v>248</v>
       </c>
     </row>
-    <row r="234" spans="1:128" ht="409.6">
+    <row r="234" spans="1:128">
       <c r="A234" s="52"/>
     </row>
-    <row r="235" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="235" spans="1:128" s="9" customFormat="1">
       <c r="A235" s="43" t="s">
         <v>275</v>
       </c>
@@ -37840,7 +37859,7 @@
       <c r="BG237" s="14"/>
       <c r="BH237" s="14"/>
       <c r="BI237" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ237" s="14" t="s">
         <v>91</v>
@@ -37948,7 +37967,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="239" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="239" spans="1:128" s="9" customFormat="1">
       <c r="A239" s="43" t="s">
         <v>276</v>
       </c>
@@ -38576,7 +38595,7 @@
       <c r="BG241" s="14"/>
       <c r="BH241" s="14"/>
       <c r="BI241" s="14" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
       <c r="BJ241" s="14" t="s">
         <v>91</v>
@@ -38684,7 +38703,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="245" spans="1:128" s="9" customFormat="1" ht="409.6">
+    <row r="245" spans="1:128" s="9" customFormat="1">
       <c r="A245" s="63" t="s">
         <v>303</v>
       </c>
@@ -39389,7 +39408,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="BJ8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>